--- a/BackTest/2020-01-25 BackTest CON.xlsx
+++ b/BackTest/2020-01-25 BackTest CON.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -484,17 +484,11 @@
         <v>-3138077.427600001</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
-      </c>
-      <c r="I3" t="n">
-        <v>3.03</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
       </c>
@@ -523,17 +517,11 @@
         <v>-2712467.458600001</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
-      </c>
-      <c r="I4" t="n">
-        <v>3.028</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -566,11 +554,7 @@
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -603,11 +587,7 @@
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -640,11 +620,7 @@
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -673,17 +649,11 @@
         <v>-2862168.314900001</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
-      </c>
-      <c r="I8" t="n">
-        <v>3.03</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -712,17 +682,11 @@
         <v>-2806523.956900001</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
-      </c>
-      <c r="I9" t="n">
-        <v>3.031</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -751,17 +715,11 @@
         <v>-2768255.167600001</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
-      </c>
-      <c r="I10" t="n">
-        <v>3.078</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -790,17 +748,11 @@
         <v>-2808721.946500001</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
-      </c>
-      <c r="I11" t="n">
-        <v>3.098</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -829,17 +781,11 @@
         <v>-2894827.726500001</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
-      </c>
-      <c r="I12" t="n">
-        <v>3.082</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -872,11 +818,7 @@
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -905,17 +847,11 @@
         <v>-2827745.316500001</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
-      </c>
-      <c r="I14" t="n">
-        <v>3.061</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -944,17 +880,11 @@
         <v>-2825745.316500001</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
-      </c>
-      <c r="I15" t="n">
-        <v>3.057</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -983,17 +913,11 @@
         <v>-2890825.266500001</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
-      </c>
-      <c r="I16" t="n">
-        <v>3.08</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -1022,17 +946,11 @@
         <v>-2830751.466500001</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
-      </c>
-      <c r="I17" t="n">
-        <v>3.057</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1061,17 +979,11 @@
         <v>-2763669.056500001</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
-      </c>
-      <c r="I18" t="n">
-        <v>3.075</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1100,17 +1012,11 @@
         <v>-2697587.876500001</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
-      </c>
-      <c r="I19" t="n">
-        <v>3.104</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1143,11 +1049,7 @@
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1180,11 +1082,7 @@
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1217,11 +1115,7 @@
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1254,11 +1148,7 @@
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1291,11 +1181,7 @@
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1328,11 +1214,7 @@
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1365,11 +1247,7 @@
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1398,17 +1276,11 @@
         <v>-2821737.524500001</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
-      </c>
-      <c r="I27" t="n">
-        <v>3.075</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1437,17 +1309,11 @@
         <v>-2803715.384500001</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
-      </c>
-      <c r="I28" t="n">
-        <v>3.047</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1476,17 +1342,11 @@
         <v>-2786694.474500001</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
-      </c>
-      <c r="I29" t="n">
-        <v>3.063</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1515,17 +1375,11 @@
         <v>-2844764.584500001</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
-      </c>
-      <c r="I30" t="n">
-        <v>3.076</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1558,11 +1412,7 @@
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1595,11 +1445,7 @@
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1632,11 +1478,7 @@
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1669,11 +1511,7 @@
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1706,11 +1544,7 @@
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1743,11 +1577,7 @@
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1780,11 +1610,7 @@
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1817,11 +1643,7 @@
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1854,11 +1676,7 @@
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1891,11 +1709,7 @@
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1928,11 +1742,7 @@
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1961,17 +1771,11 @@
         <v>-3031293.364500001</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
-      </c>
-      <c r="I42" t="n">
-        <v>3.072</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -2000,17 +1804,11 @@
         <v>-2931170.364500001</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
-      </c>
-      <c r="I43" t="n">
-        <v>3.054</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -2043,11 +1841,7 @@
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -2076,17 +1870,11 @@
         <v>-2961207.264500001</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
-      </c>
-      <c r="I45" t="n">
-        <v>3.061</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2119,11 +1907,7 @@
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2156,11 +1940,7 @@
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2193,11 +1973,7 @@
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2230,11 +2006,7 @@
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2267,11 +2039,7 @@
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2304,11 +2072,7 @@
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2341,11 +2105,7 @@
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2378,11 +2138,7 @@
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2415,11 +2171,7 @@
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2452,11 +2204,7 @@
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2489,11 +2237,7 @@
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2526,11 +2270,7 @@
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2563,11 +2303,7 @@
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2600,11 +2336,7 @@
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2637,11 +2369,7 @@
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2674,11 +2402,7 @@
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2711,11 +2435,7 @@
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2748,11 +2468,7 @@
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2785,11 +2501,7 @@
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2822,11 +2534,7 @@
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2859,11 +2567,7 @@
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2896,11 +2600,7 @@
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2933,11 +2633,7 @@
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2970,11 +2666,7 @@
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -3007,11 +2699,7 @@
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -3044,11 +2732,7 @@
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -3081,11 +2765,7 @@
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3118,11 +2798,7 @@
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3155,11 +2831,7 @@
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3188,17 +2860,11 @@
         <v>-2942578.550000002</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
-      </c>
-      <c r="I75" t="n">
-        <v>3.04</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3231,11 +2897,7 @@
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3264,17 +2926,11 @@
         <v>-2857933.194400002</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
-      </c>
-      <c r="I77" t="n">
-        <v>3.04</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3303,17 +2959,11 @@
         <v>-2959057.424400002</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
-      </c>
-      <c r="I78" t="n">
-        <v>3.082</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3346,11 +2996,7 @@
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3383,11 +3029,7 @@
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3420,11 +3062,7 @@
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3457,11 +3095,7 @@
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3494,11 +3128,7 @@
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3531,11 +3161,7 @@
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3568,11 +3194,7 @@
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3605,11 +3227,7 @@
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3642,11 +3260,7 @@
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3679,11 +3293,7 @@
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3716,11 +3326,7 @@
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3753,11 +3359,7 @@
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3790,11 +3392,7 @@
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3827,11 +3425,7 @@
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3860,17 +3454,11 @@
         <v>-3103786.625900002</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
-      </c>
-      <c r="I93" t="n">
-        <v>3.056</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3899,17 +3487,11 @@
         <v>-3132218.019900002</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
-      </c>
-      <c r="I94" t="n">
-        <v>3.045</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3938,17 +3520,11 @@
         <v>-3115197.109900001</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
-      </c>
-      <c r="I95" t="n">
-        <v>3.027</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3977,17 +3553,11 @@
         <v>-3044109.779900001</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
-      </c>
-      <c r="I96" t="n">
-        <v>3.029</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -4016,17 +3586,11 @@
         <v>-2911947.419900001</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
-      </c>
-      <c r="I97" t="n">
-        <v>3.039</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -4059,11 +3623,7 @@
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -4096,11 +3656,7 @@
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4133,11 +3689,7 @@
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4170,11 +3722,7 @@
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4203,17 +3751,11 @@
         <v>-2846531.056900001</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
-      </c>
-      <c r="I102" t="n">
-        <v>3.027</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4246,11 +3788,7 @@
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4283,11 +3821,7 @@
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4316,17 +3850,11 @@
         <v>-2904602.396900001</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
-      </c>
-      <c r="I105" t="n">
-        <v>3.043</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4355,17 +3883,11 @@
         <v>-2883576.566900001</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
-      </c>
-      <c r="I106" t="n">
-        <v>3.031</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4398,11 +3920,7 @@
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4431,17 +3949,11 @@
         <v>-2942649.136900001</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
-      </c>
-      <c r="I108" t="n">
-        <v>3.046</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4474,11 +3986,7 @@
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4507,17 +4015,11 @@
         <v>-3022747.536900001</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
-      </c>
-      <c r="I110" t="n">
-        <v>3.06</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4550,11 +4052,7 @@
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4587,11 +4085,7 @@
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4624,11 +4118,7 @@
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4661,11 +4151,7 @@
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4698,11 +4184,7 @@
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4735,11 +4217,7 @@
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4772,11 +4250,7 @@
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4809,11 +4283,7 @@
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4846,11 +4316,7 @@
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4883,11 +4349,7 @@
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4920,11 +4382,7 @@
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4957,11 +4415,7 @@
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4994,11 +4448,7 @@
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -5031,11 +4481,7 @@
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -5068,11 +4514,7 @@
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -5105,11 +4547,7 @@
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -5142,11 +4580,7 @@
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5179,11 +4613,7 @@
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5216,11 +4646,7 @@
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5253,11 +4679,7 @@
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5290,11 +4712,7 @@
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5327,11 +4745,7 @@
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5364,11 +4778,7 @@
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5401,11 +4811,7 @@
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5438,11 +4844,7 @@
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5475,11 +4877,7 @@
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5512,11 +4910,7 @@
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5549,11 +4943,7 @@
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5586,11 +4976,7 @@
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5623,11 +5009,7 @@
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5660,11 +5042,7 @@
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5697,11 +5075,7 @@
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5734,11 +5108,7 @@
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5771,11 +5141,7 @@
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5804,17 +5170,11 @@
         <v>-3043495.390999999</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
-      </c>
-      <c r="I145" t="n">
-        <v>3.066</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5847,11 +5207,7 @@
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5884,11 +5240,7 @@
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5921,11 +5273,7 @@
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5958,11 +5306,7 @@
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5995,11 +5339,7 @@
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -6032,11 +5372,7 @@
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -6069,11 +5405,7 @@
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -6106,11 +5438,7 @@
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -6143,11 +5471,7 @@
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -6180,11 +5504,7 @@
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -6217,11 +5537,7 @@
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6254,11 +5570,7 @@
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6291,11 +5603,7 @@
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6328,11 +5636,7 @@
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6365,11 +5669,7 @@
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6402,11 +5702,7 @@
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6439,11 +5735,7 @@
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6476,11 +5768,7 @@
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6513,11 +5801,7 @@
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6550,11 +5834,7 @@
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6587,11 +5867,7 @@
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6624,11 +5900,7 @@
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6661,11 +5933,7 @@
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6698,11 +5966,7 @@
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6735,11 +5999,7 @@
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6772,11 +6032,7 @@
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6809,11 +6065,7 @@
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6846,11 +6098,7 @@
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6883,11 +6131,7 @@
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6920,11 +6164,7 @@
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6957,11 +6197,7 @@
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6994,11 +6230,7 @@
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -7031,11 +6263,7 @@
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -7068,11 +6296,7 @@
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -7105,11 +6329,7 @@
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -7142,11 +6362,7 @@
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -7179,11 +6395,7 @@
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -7216,11 +6428,7 @@
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -7253,11 +6461,7 @@
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -7290,11 +6494,7 @@
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7327,11 +6527,7 @@
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7364,11 +6560,7 @@
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7401,11 +6593,7 @@
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7438,11 +6626,7 @@
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7475,11 +6659,7 @@
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7512,11 +6692,7 @@
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7549,11 +6725,7 @@
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7586,11 +6758,7 @@
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7623,11 +6791,7 @@
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7660,11 +6824,7 @@
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7697,11 +6857,7 @@
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7734,11 +6890,7 @@
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7771,11 +6923,7 @@
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7808,11 +6956,7 @@
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7845,11 +6989,7 @@
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7882,11 +7022,7 @@
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7919,11 +7055,7 @@
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7956,11 +7088,7 @@
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7993,11 +7121,7 @@
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -8030,11 +7154,7 @@
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -8067,11 +7187,7 @@
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -8104,11 +7220,7 @@
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -8141,11 +7253,7 @@
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -8178,11 +7286,7 @@
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -8215,11 +7319,7 @@
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -8252,11 +7352,7 @@
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -8289,11 +7385,7 @@
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -8326,11 +7418,7 @@
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -8363,11 +7451,7 @@
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -8400,11 +7484,7 @@
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -8437,11 +7517,7 @@
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -8474,11 +7550,7 @@
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -8511,11 +7583,7 @@
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8548,11 +7616,7 @@
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8585,11 +7649,7 @@
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -8622,11 +7682,7 @@
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8659,11 +7715,7 @@
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8696,11 +7748,7 @@
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8733,11 +7781,7 @@
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8770,11 +7814,7 @@
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8807,11 +7847,7 @@
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8844,11 +7880,7 @@
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8881,11 +7913,7 @@
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8918,11 +7946,7 @@
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K229" t="inlineStr"/>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8955,11 +7979,7 @@
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K230" t="inlineStr"/>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8992,11 +8012,7 @@
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K231" t="inlineStr"/>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -9029,11 +8045,7 @@
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K232" t="inlineStr"/>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -9066,11 +8078,7 @@
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K233" t="inlineStr"/>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -9103,11 +8111,7 @@
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K234" t="inlineStr"/>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -9140,11 +8144,7 @@
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K235" t="inlineStr"/>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -9177,11 +8177,7 @@
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K236" t="inlineStr"/>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -9214,11 +8210,7 @@
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K237" t="inlineStr"/>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -9251,11 +8243,7 @@
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K238" t="inlineStr"/>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -9288,11 +8276,7 @@
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K239" t="inlineStr"/>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -9325,11 +8309,7 @@
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K240" t="inlineStr"/>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -9362,11 +8342,7 @@
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K241" t="inlineStr"/>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -9399,11 +8375,7 @@
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K242" t="inlineStr"/>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -9436,11 +8408,7 @@
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K243" t="inlineStr"/>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -9473,11 +8441,7 @@
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K244" t="inlineStr"/>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -9506,16 +8470,14 @@
         <v>-2989907.310399996</v>
       </c>
       <c r="H245" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L245" t="inlineStr"/>
+      <c r="K245" t="inlineStr"/>
+      <c r="L245" t="n">
+        <v>1</v>
+      </c>
       <c r="M245" t="inlineStr"/>
     </row>
     <row r="246">
@@ -9541,7 +8503,7 @@
         <v>-3059592.180399996</v>
       </c>
       <c r="H246" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -9574,7 +8536,7 @@
         <v>-3075010.630399996</v>
       </c>
       <c r="H247" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -9607,7 +8569,7 @@
         <v>-3075410.630399996</v>
       </c>
       <c r="H248" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -9673,7 +8635,7 @@
         <v>-3076610.630399996</v>
       </c>
       <c r="H250" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -9706,7 +8668,7 @@
         <v>-3077405.694399996</v>
       </c>
       <c r="H251" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -9739,7 +8701,7 @@
         <v>-3184449.929299996</v>
       </c>
       <c r="H252" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -9772,7 +8734,7 @@
         <v>-3282822.740599996</v>
       </c>
       <c r="H253" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -10069,7 +9031,7 @@
         <v>-3267715.583999997</v>
       </c>
       <c r="H262" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -10102,7 +9064,7 @@
         <v>-3318698.215999997</v>
       </c>
       <c r="H263" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -10135,7 +9097,7 @@
         <v>-3220577.675999997</v>
       </c>
       <c r="H264" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -10234,7 +9196,7 @@
         <v>-3073396.865999997</v>
       </c>
       <c r="H267" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -10267,7 +9229,7 @@
         <v>-3073396.865999997</v>
       </c>
       <c r="H268" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -10399,7 +9361,7 @@
         <v>-3063384.565999997</v>
       </c>
       <c r="H272" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -10498,7 +9460,7 @@
         <v>-3213990.426511318</v>
       </c>
       <c r="H275" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -10795,7 +9757,7 @@
         <v>-3378193.376511318</v>
       </c>
       <c r="H284" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -10828,7 +9790,7 @@
         <v>-3514056.282511318</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -10861,7 +9823,7 @@
         <v>-3416736.972511318</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -10894,7 +9856,7 @@
         <v>-3416736.972511318</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -10927,7 +9889,7 @@
         <v>-3416736.972511318</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -10960,7 +9922,7 @@
         <v>-3416236.972511318</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -10993,7 +9955,7 @@
         <v>-3416261.493511318</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -11026,7 +9988,7 @@
         <v>-3416261.493511318</v>
       </c>
       <c r="H291" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -11059,7 +10021,7 @@
         <v>-3416261.493511318</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -11092,7 +10054,7 @@
         <v>-3416261.493511318</v>
       </c>
       <c r="H293" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -11125,7 +10087,7 @@
         <v>-3523755.626511318</v>
       </c>
       <c r="H294" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -11158,7 +10120,7 @@
         <v>-3523755.626511318</v>
       </c>
       <c r="H295" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -11191,7 +10153,7 @@
         <v>-3523755.626511318</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -11224,7 +10186,7 @@
         <v>-3523755.626511318</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -11257,7 +10219,7 @@
         <v>-3452668.296511318</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -11290,7 +10252,7 @@
         <v>-3552791.296511318</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -11323,7 +10285,7 @@
         <v>-3552791.296511318</v>
       </c>
       <c r="H300" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -11356,7 +10318,7 @@
         <v>-3552791.296511318</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -11389,7 +10351,7 @@
         <v>-3552791.296511318</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -11422,7 +10384,7 @@
         <v>-3464683.056511318</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -11653,7 +10615,7 @@
         <v>-3488912.576511318</v>
       </c>
       <c r="H310" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -11719,7 +10681,7 @@
         <v>-3535970.386511318</v>
       </c>
       <c r="H312" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -11752,7 +10714,7 @@
         <v>-3549987.606511318</v>
       </c>
       <c r="H313" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -11785,7 +10747,7 @@
         <v>-3549987.606511318</v>
       </c>
       <c r="H314" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -11818,7 +10780,7 @@
         <v>-3447662.146511318</v>
       </c>
       <c r="H315" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -11851,7 +10813,7 @@
         <v>-3447662.146511318</v>
       </c>
       <c r="H316" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
@@ -11884,7 +10846,7 @@
         <v>-3447662.146511318</v>
       </c>
       <c r="H317" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
@@ -11917,7 +10879,7 @@
         <v>-3436052.612611318</v>
       </c>
       <c r="H318" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
@@ -11950,7 +10912,7 @@
         <v>-3436052.612611318</v>
       </c>
       <c r="H319" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -11983,7 +10945,7 @@
         <v>-3529557.468711318</v>
       </c>
       <c r="H320" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
@@ -12016,7 +10978,7 @@
         <v>-3455266.448711318</v>
       </c>
       <c r="H321" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
@@ -12049,7 +11011,7 @@
         <v>-3455714.999711318</v>
       </c>
       <c r="H322" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -12082,7 +11044,7 @@
         <v>-3455714.999711318</v>
       </c>
       <c r="H323" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
@@ -12115,7 +11077,7 @@
         <v>-3455714.999711318</v>
       </c>
       <c r="H324" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
@@ -12148,7 +11110,7 @@
         <v>-3455714.999711318</v>
       </c>
       <c r="H325" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
@@ -12181,7 +11143,7 @@
         <v>-3455714.999711318</v>
       </c>
       <c r="H326" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
@@ -12214,7 +11176,7 @@
         <v>-3550030.619711318</v>
       </c>
       <c r="H327" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
@@ -12247,7 +11209,7 @@
         <v>-3550030.619711318</v>
       </c>
       <c r="H328" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
@@ -12280,7 +11242,7 @@
         <v>-3550030.619711318</v>
       </c>
       <c r="H329" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
@@ -12313,7 +11275,7 @@
         <v>-3550030.619711318</v>
       </c>
       <c r="H330" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
@@ -12346,7 +11308,7 @@
         <v>-3550030.619711318</v>
       </c>
       <c r="H331" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
@@ -12379,7 +11341,7 @@
         <v>-3550030.619711318</v>
       </c>
       <c r="H332" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
@@ -12412,7 +11374,7 @@
         <v>-3550030.619711318</v>
       </c>
       <c r="H333" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
@@ -12445,7 +11407,7 @@
         <v>-3551230.619711318</v>
       </c>
       <c r="H334" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
@@ -12478,7 +11440,7 @@
         <v>-3552965.583911318</v>
       </c>
       <c r="H335" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
@@ -12511,7 +11473,7 @@
         <v>-3552965.583911318</v>
       </c>
       <c r="H336" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -12544,7 +11506,7 @@
         <v>-3552965.583911318</v>
       </c>
       <c r="H337" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
@@ -12577,7 +11539,7 @@
         <v>-3552965.583911318</v>
       </c>
       <c r="H338" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
@@ -12610,7 +11572,7 @@
         <v>-3552965.583911318</v>
       </c>
       <c r="H339" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
@@ -12643,7 +11605,7 @@
         <v>-3552965.583911318</v>
       </c>
       <c r="H340" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -12676,7 +11638,7 @@
         <v>-3552965.583911318</v>
       </c>
       <c r="H341" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
@@ -12709,7 +11671,7 @@
         <v>-3552965.583911318</v>
       </c>
       <c r="H342" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
@@ -12742,7 +11704,7 @@
         <v>-3553165.583911318</v>
       </c>
       <c r="H343" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
@@ -12775,7 +11737,7 @@
         <v>-3476288.033411318</v>
       </c>
       <c r="H344" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
@@ -12808,7 +11770,7 @@
         <v>-3650502.053411318</v>
       </c>
       <c r="H345" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
@@ -12841,7 +11803,7 @@
         <v>-3650502.053411318</v>
       </c>
       <c r="H346" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
@@ -12874,7 +11836,7 @@
         <v>-3554727.128811318</v>
       </c>
       <c r="H347" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
@@ -12907,7 +11869,7 @@
         <v>-3554727.128811318</v>
       </c>
       <c r="H348" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
@@ -12940,7 +11902,7 @@
         <v>-3554727.128811318</v>
       </c>
       <c r="H349" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
@@ -12973,7 +11935,7 @@
         <v>-3554927.128811318</v>
       </c>
       <c r="H350" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
@@ -13006,7 +11968,7 @@
         <v>-3610523.174211318</v>
       </c>
       <c r="H351" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
@@ -13039,7 +12001,7 @@
         <v>-3638589.407211318</v>
       </c>
       <c r="H352" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
@@ -13072,7 +12034,7 @@
         <v>-3547477.477211318</v>
       </c>
       <c r="H353" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
@@ -13105,7 +12067,7 @@
         <v>-3548521.829411318</v>
       </c>
       <c r="H354" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
@@ -13138,7 +12100,7 @@
         <v>-3456408.669411318</v>
       </c>
       <c r="H355" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
@@ -13171,7 +12133,7 @@
         <v>-3543671.327211318</v>
       </c>
       <c r="H356" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
@@ -13204,7 +12166,7 @@
         <v>-3634977.107211318</v>
       </c>
       <c r="H357" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
@@ -13237,7 +12199,7 @@
         <v>-3738303.797211318</v>
       </c>
       <c r="H358" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
@@ -13270,7 +12232,7 @@
         <v>-3598767.201967502</v>
       </c>
       <c r="H359" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
@@ -13303,7 +12265,7 @@
         <v>-3667852.071967503</v>
       </c>
       <c r="H360" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
@@ -13336,7 +12298,7 @@
         <v>-3652833.621967502</v>
       </c>
       <c r="H361" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
@@ -13369,7 +12331,7 @@
         <v>-3758964.001967502</v>
       </c>
       <c r="H362" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
@@ -13402,7 +12364,7 @@
         <v>-3662845.921967502</v>
       </c>
       <c r="H363" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
@@ -13435,7 +12397,7 @@
         <v>-3594362.281967502</v>
       </c>
       <c r="H364" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
@@ -13468,7 +12430,7 @@
         <v>-3594362.281967502</v>
       </c>
       <c r="H365" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
@@ -13501,7 +12463,7 @@
         <v>-3594062.281967502</v>
       </c>
       <c r="H366" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
@@ -13534,7 +12496,7 @@
         <v>-3614503.021267502</v>
       </c>
       <c r="H367" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
@@ -13567,7 +12529,7 @@
         <v>-3614503.021267502</v>
       </c>
       <c r="H368" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
@@ -13600,7 +12562,7 @@
         <v>-3614503.021267502</v>
       </c>
       <c r="H369" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
@@ -13633,7 +12595,7 @@
         <v>-3614503.021267502</v>
       </c>
       <c r="H370" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
@@ -13666,7 +12628,7 @@
         <v>-3614503.021267502</v>
       </c>
       <c r="H371" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
@@ -13699,7 +12661,7 @@
         <v>-3614503.021267502</v>
       </c>
       <c r="H372" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
@@ -13732,7 +12694,7 @@
         <v>-3614503.021267502</v>
       </c>
       <c r="H373" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
@@ -13765,7 +12727,7 @@
         <v>-3614503.021267502</v>
       </c>
       <c r="H374" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
@@ -13798,7 +12760,7 @@
         <v>-3614503.021267502</v>
       </c>
       <c r="H375" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
@@ -13831,7 +12793,7 @@
         <v>-3614503.021267502</v>
       </c>
       <c r="H376" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
@@ -13864,7 +12826,7 @@
         <v>-3614503.021267502</v>
       </c>
       <c r="H377" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
@@ -13897,7 +12859,7 @@
         <v>-3614503.021267502</v>
       </c>
       <c r="H378" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
@@ -13930,7 +12892,7 @@
         <v>-3614503.021267502</v>
       </c>
       <c r="H379" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
@@ -13963,7 +12925,7 @@
         <v>-3614503.021267502</v>
       </c>
       <c r="H380" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
@@ -13996,7 +12958,7 @@
         <v>-3614503.021267502</v>
       </c>
       <c r="H381" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
@@ -14029,7 +12991,7 @@
         <v>-3614503.021267502</v>
       </c>
       <c r="H382" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
@@ -14062,7 +13024,7 @@
         <v>-3615019.260667502</v>
       </c>
       <c r="H383" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
@@ -14095,7 +13057,7 @@
         <v>-3644054.930667502</v>
       </c>
       <c r="H384" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
@@ -14128,7 +13090,7 @@
         <v>-3644571.370367502</v>
       </c>
       <c r="H385" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
@@ -14161,7 +13123,7 @@
         <v>-3664419.365767502</v>
       </c>
       <c r="H386" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
@@ -14194,7 +13156,7 @@
         <v>-3900586.645767502</v>
       </c>
       <c r="H387" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
@@ -14227,7 +13189,7 @@
         <v>-3900586.645767502</v>
       </c>
       <c r="H388" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
@@ -14293,7 +13255,7 @@
         <v>-3977481.355767502</v>
       </c>
       <c r="H390" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
@@ -14326,7 +13288,7 @@
         <v>-3977481.355767502</v>
       </c>
       <c r="H391" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
@@ -14491,7 +13453,7 @@
         <v>-3825380.539067502</v>
       </c>
       <c r="H396" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
@@ -15943,7 +14905,7 @@
         <v>-4397616.484967501</v>
       </c>
       <c r="H440" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
@@ -15976,7 +14938,7 @@
         <v>-4397616.484967501</v>
       </c>
       <c r="H441" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
@@ -22675,7 +21637,7 @@
         <v>-4720141.480567497</v>
       </c>
       <c r="H644" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I644" t="inlineStr"/>
       <c r="J644" t="inlineStr"/>
@@ -22708,7 +21670,7 @@
         <v>-4720658.824967497</v>
       </c>
       <c r="H645" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I645" t="inlineStr"/>
       <c r="J645" t="inlineStr"/>
@@ -22741,7 +21703,7 @@
         <v>-4784253.035367497</v>
       </c>
       <c r="H646" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I646" t="inlineStr"/>
       <c r="J646" t="inlineStr"/>
@@ -22774,7 +21736,7 @@
         <v>-4784669.547367497</v>
       </c>
       <c r="H647" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I647" t="inlineStr"/>
       <c r="J647" t="inlineStr"/>
@@ -23698,10 +22660,14 @@
         <v>-6320685.334967494</v>
       </c>
       <c r="H675" t="n">
-        <v>0</v>
-      </c>
-      <c r="I675" t="inlineStr"/>
-      <c r="J675" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I675" t="n">
+        <v>3.028</v>
+      </c>
+      <c r="J675" t="n">
+        <v>3.028</v>
+      </c>
       <c r="K675" t="inlineStr"/>
       <c r="L675" t="n">
         <v>1</v>
@@ -23731,11 +22697,19 @@
         <v>-6076724.796467494</v>
       </c>
       <c r="H676" t="n">
-        <v>0</v>
-      </c>
-      <c r="I676" t="inlineStr"/>
-      <c r="J676" t="inlineStr"/>
-      <c r="K676" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I676" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="J676" t="n">
+        <v>3.028</v>
+      </c>
+      <c r="K676" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L676" t="n">
         <v>1</v>
       </c>
@@ -23764,11 +22738,19 @@
         <v>-6013647.306467494</v>
       </c>
       <c r="H677" t="n">
-        <v>0</v>
-      </c>
-      <c r="I677" t="inlineStr"/>
-      <c r="J677" t="inlineStr"/>
-      <c r="K677" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I677" t="n">
+        <v>3.053</v>
+      </c>
+      <c r="J677" t="n">
+        <v>3.028</v>
+      </c>
+      <c r="K677" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L677" t="n">
         <v>1</v>
       </c>
@@ -23797,10 +22779,14 @@
         <v>-5918530.456467494</v>
       </c>
       <c r="H678" t="n">
-        <v>0</v>
-      </c>
-      <c r="I678" t="inlineStr"/>
-      <c r="J678" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I678" t="n">
+        <v>3.057</v>
+      </c>
+      <c r="J678" t="n">
+        <v>3.057</v>
+      </c>
       <c r="K678" t="inlineStr"/>
       <c r="L678" t="n">
         <v>1</v>
@@ -23830,11 +22816,19 @@
         <v>-5929543.986467495</v>
       </c>
       <c r="H679" t="n">
-        <v>0</v>
-      </c>
-      <c r="I679" t="inlineStr"/>
-      <c r="J679" t="inlineStr"/>
-      <c r="K679" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I679" t="n">
+        <v>3.069</v>
+      </c>
+      <c r="J679" t="n">
+        <v>3.057</v>
+      </c>
+      <c r="K679" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L679" t="n">
         <v>1</v>
       </c>
@@ -23863,11 +22857,19 @@
         <v>-5872473.876467494</v>
       </c>
       <c r="H680" t="n">
-        <v>0</v>
-      </c>
-      <c r="I680" t="inlineStr"/>
-      <c r="J680" t="inlineStr"/>
-      <c r="K680" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I680" t="n">
+        <v>3.055</v>
+      </c>
+      <c r="J680" t="n">
+        <v>3.057</v>
+      </c>
+      <c r="K680" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L680" t="n">
         <v>1</v>
       </c>
@@ -23896,10 +22898,14 @@
         <v>-5922535.376467494</v>
       </c>
       <c r="H681" t="n">
-        <v>0</v>
-      </c>
-      <c r="I681" t="inlineStr"/>
-      <c r="J681" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I681" t="n">
+        <v>3.066</v>
+      </c>
+      <c r="J681" t="n">
+        <v>3.066</v>
+      </c>
       <c r="K681" t="inlineStr"/>
       <c r="L681" t="n">
         <v>1</v>
@@ -23929,11 +22935,19 @@
         <v>-5924543.301867494</v>
       </c>
       <c r="H682" t="n">
-        <v>0</v>
-      </c>
-      <c r="I682" t="inlineStr"/>
-      <c r="J682" t="inlineStr"/>
-      <c r="K682" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I682" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="J682" t="n">
+        <v>3.066</v>
+      </c>
+      <c r="K682" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L682" t="n">
         <v>1</v>
       </c>
@@ -23962,11 +22976,19 @@
         <v>-5823124.836267495</v>
       </c>
       <c r="H683" t="n">
-        <v>0</v>
-      </c>
-      <c r="I683" t="inlineStr"/>
-      <c r="J683" t="inlineStr"/>
-      <c r="K683" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I683" t="n">
+        <v>3.057</v>
+      </c>
+      <c r="J683" t="n">
+        <v>3.066</v>
+      </c>
+      <c r="K683" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L683" t="n">
         <v>1</v>
       </c>
@@ -23995,11 +23017,19 @@
         <v>-5549129.308367494</v>
       </c>
       <c r="H684" t="n">
-        <v>0</v>
-      </c>
-      <c r="I684" t="inlineStr"/>
-      <c r="J684" t="inlineStr"/>
-      <c r="K684" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I684" t="n">
+        <v>3.064</v>
+      </c>
+      <c r="J684" t="n">
+        <v>3.066</v>
+      </c>
+      <c r="K684" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L684" t="n">
         <v>1</v>
       </c>
@@ -24028,11 +23058,19 @@
         <v>-5509080.108367494</v>
       </c>
       <c r="H685" t="n">
-        <v>0</v>
-      </c>
-      <c r="I685" t="inlineStr"/>
-      <c r="J685" t="inlineStr"/>
-      <c r="K685" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I685" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="J685" t="n">
+        <v>3.066</v>
+      </c>
+      <c r="K685" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L685" t="n">
         <v>1</v>
       </c>
@@ -24064,8 +23102,14 @@
         <v>0</v>
       </c>
       <c r="I686" t="inlineStr"/>
-      <c r="J686" t="inlineStr"/>
-      <c r="K686" t="inlineStr"/>
+      <c r="J686" t="n">
+        <v>3.066</v>
+      </c>
+      <c r="K686" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L686" t="n">
         <v>1</v>
       </c>
@@ -24097,8 +23141,14 @@
         <v>0</v>
       </c>
       <c r="I687" t="inlineStr"/>
-      <c r="J687" t="inlineStr"/>
-      <c r="K687" t="inlineStr"/>
+      <c r="J687" t="n">
+        <v>3.066</v>
+      </c>
+      <c r="K687" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L687" t="n">
         <v>1</v>
       </c>
@@ -24130,8 +23180,14 @@
         <v>0</v>
       </c>
       <c r="I688" t="inlineStr"/>
-      <c r="J688" t="inlineStr"/>
-      <c r="K688" t="inlineStr"/>
+      <c r="J688" t="n">
+        <v>3.066</v>
+      </c>
+      <c r="K688" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L688" t="n">
         <v>1</v>
       </c>
@@ -24163,8 +23219,14 @@
         <v>0</v>
       </c>
       <c r="I689" t="inlineStr"/>
-      <c r="J689" t="inlineStr"/>
-      <c r="K689" t="inlineStr"/>
+      <c r="J689" t="n">
+        <v>3.066</v>
+      </c>
+      <c r="K689" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L689" t="n">
         <v>1</v>
       </c>
@@ -24196,8 +23258,14 @@
         <v>0</v>
       </c>
       <c r="I690" t="inlineStr"/>
-      <c r="J690" t="inlineStr"/>
-      <c r="K690" t="inlineStr"/>
+      <c r="J690" t="n">
+        <v>3.066</v>
+      </c>
+      <c r="K690" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L690" t="n">
         <v>1</v>
       </c>
@@ -24229,8 +23297,14 @@
         <v>0</v>
       </c>
       <c r="I691" t="inlineStr"/>
-      <c r="J691" t="inlineStr"/>
-      <c r="K691" t="inlineStr"/>
+      <c r="J691" t="n">
+        <v>3.066</v>
+      </c>
+      <c r="K691" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L691" t="n">
         <v>1</v>
       </c>
@@ -24262,8 +23336,14 @@
         <v>0</v>
       </c>
       <c r="I692" t="inlineStr"/>
-      <c r="J692" t="inlineStr"/>
-      <c r="K692" t="inlineStr"/>
+      <c r="J692" t="n">
+        <v>3.066</v>
+      </c>
+      <c r="K692" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L692" t="n">
         <v>1</v>
       </c>
@@ -24295,8 +23375,14 @@
         <v>0</v>
       </c>
       <c r="I693" t="inlineStr"/>
-      <c r="J693" t="inlineStr"/>
-      <c r="K693" t="inlineStr"/>
+      <c r="J693" t="n">
+        <v>3.066</v>
+      </c>
+      <c r="K693" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L693" t="n">
         <v>1</v>
       </c>
@@ -24328,8 +23414,14 @@
         <v>0</v>
       </c>
       <c r="I694" t="inlineStr"/>
-      <c r="J694" t="inlineStr"/>
-      <c r="K694" t="inlineStr"/>
+      <c r="J694" t="n">
+        <v>3.066</v>
+      </c>
+      <c r="K694" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L694" t="n">
         <v>1</v>
       </c>
@@ -24361,8 +23453,14 @@
         <v>0</v>
       </c>
       <c r="I695" t="inlineStr"/>
-      <c r="J695" t="inlineStr"/>
-      <c r="K695" t="inlineStr"/>
+      <c r="J695" t="n">
+        <v>3.066</v>
+      </c>
+      <c r="K695" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L695" t="n">
         <v>1</v>
       </c>
@@ -24394,8 +23492,14 @@
         <v>0</v>
       </c>
       <c r="I696" t="inlineStr"/>
-      <c r="J696" t="inlineStr"/>
-      <c r="K696" t="inlineStr"/>
+      <c r="J696" t="n">
+        <v>3.066</v>
+      </c>
+      <c r="K696" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L696" t="n">
         <v>1</v>
       </c>
@@ -24427,8 +23531,14 @@
         <v>0</v>
       </c>
       <c r="I697" t="inlineStr"/>
-      <c r="J697" t="inlineStr"/>
-      <c r="K697" t="inlineStr"/>
+      <c r="J697" t="n">
+        <v>3.066</v>
+      </c>
+      <c r="K697" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L697" t="n">
         <v>1</v>
       </c>
@@ -24460,8 +23570,14 @@
         <v>0</v>
       </c>
       <c r="I698" t="inlineStr"/>
-      <c r="J698" t="inlineStr"/>
-      <c r="K698" t="inlineStr"/>
+      <c r="J698" t="n">
+        <v>3.066</v>
+      </c>
+      <c r="K698" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L698" t="n">
         <v>1</v>
       </c>
@@ -24493,8 +23609,14 @@
         <v>0</v>
       </c>
       <c r="I699" t="inlineStr"/>
-      <c r="J699" t="inlineStr"/>
-      <c r="K699" t="inlineStr"/>
+      <c r="J699" t="n">
+        <v>3.066</v>
+      </c>
+      <c r="K699" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L699" t="n">
         <v>1</v>
       </c>
@@ -24526,8 +23648,14 @@
         <v>0</v>
       </c>
       <c r="I700" t="inlineStr"/>
-      <c r="J700" t="inlineStr"/>
-      <c r="K700" t="inlineStr"/>
+      <c r="J700" t="n">
+        <v>3.066</v>
+      </c>
+      <c r="K700" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L700" t="n">
         <v>1</v>
       </c>
@@ -24559,8 +23687,14 @@
         <v>0</v>
       </c>
       <c r="I701" t="inlineStr"/>
-      <c r="J701" t="inlineStr"/>
-      <c r="K701" t="inlineStr"/>
+      <c r="J701" t="n">
+        <v>3.066</v>
+      </c>
+      <c r="K701" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L701" t="n">
         <v>1</v>
       </c>
@@ -24592,8 +23726,14 @@
         <v>0</v>
       </c>
       <c r="I702" t="inlineStr"/>
-      <c r="J702" t="inlineStr"/>
-      <c r="K702" t="inlineStr"/>
+      <c r="J702" t="n">
+        <v>3.066</v>
+      </c>
+      <c r="K702" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L702" t="n">
         <v>1</v>
       </c>
@@ -24625,8 +23765,14 @@
         <v>0</v>
       </c>
       <c r="I703" t="inlineStr"/>
-      <c r="J703" t="inlineStr"/>
-      <c r="K703" t="inlineStr"/>
+      <c r="J703" t="n">
+        <v>3.066</v>
+      </c>
+      <c r="K703" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L703" t="n">
         <v>1</v>
       </c>
@@ -24658,8 +23804,14 @@
         <v>0</v>
       </c>
       <c r="I704" t="inlineStr"/>
-      <c r="J704" t="inlineStr"/>
-      <c r="K704" t="inlineStr"/>
+      <c r="J704" t="n">
+        <v>3.066</v>
+      </c>
+      <c r="K704" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L704" t="n">
         <v>1</v>
       </c>
@@ -24691,8 +23843,14 @@
         <v>0</v>
       </c>
       <c r="I705" t="inlineStr"/>
-      <c r="J705" t="inlineStr"/>
-      <c r="K705" t="inlineStr"/>
+      <c r="J705" t="n">
+        <v>3.066</v>
+      </c>
+      <c r="K705" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L705" t="n">
         <v>1</v>
       </c>
@@ -24724,8 +23882,14 @@
         <v>0</v>
       </c>
       <c r="I706" t="inlineStr"/>
-      <c r="J706" t="inlineStr"/>
-      <c r="K706" t="inlineStr"/>
+      <c r="J706" t="n">
+        <v>3.066</v>
+      </c>
+      <c r="K706" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L706" t="n">
         <v>1</v>
       </c>
@@ -24757,8 +23921,14 @@
         <v>0</v>
       </c>
       <c r="I707" t="inlineStr"/>
-      <c r="J707" t="inlineStr"/>
-      <c r="K707" t="inlineStr"/>
+      <c r="J707" t="n">
+        <v>3.066</v>
+      </c>
+      <c r="K707" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L707" t="n">
         <v>1</v>
       </c>
@@ -24790,8 +23960,14 @@
         <v>0</v>
       </c>
       <c r="I708" t="inlineStr"/>
-      <c r="J708" t="inlineStr"/>
-      <c r="K708" t="inlineStr"/>
+      <c r="J708" t="n">
+        <v>3.066</v>
+      </c>
+      <c r="K708" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L708" t="n">
         <v>1</v>
       </c>
@@ -24823,8 +23999,14 @@
         <v>0</v>
       </c>
       <c r="I709" t="inlineStr"/>
-      <c r="J709" t="inlineStr"/>
-      <c r="K709" t="inlineStr"/>
+      <c r="J709" t="n">
+        <v>3.066</v>
+      </c>
+      <c r="K709" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L709" t="n">
         <v>1</v>
       </c>
@@ -24856,8 +24038,14 @@
         <v>0</v>
       </c>
       <c r="I710" t="inlineStr"/>
-      <c r="J710" t="inlineStr"/>
-      <c r="K710" t="inlineStr"/>
+      <c r="J710" t="n">
+        <v>3.066</v>
+      </c>
+      <c r="K710" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L710" t="n">
         <v>1</v>
       </c>
@@ -24889,8 +24077,14 @@
         <v>0</v>
       </c>
       <c r="I711" t="inlineStr"/>
-      <c r="J711" t="inlineStr"/>
-      <c r="K711" t="inlineStr"/>
+      <c r="J711" t="n">
+        <v>3.066</v>
+      </c>
+      <c r="K711" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L711" t="n">
         <v>1</v>
       </c>
@@ -24922,8 +24116,14 @@
         <v>0</v>
       </c>
       <c r="I712" t="inlineStr"/>
-      <c r="J712" t="inlineStr"/>
-      <c r="K712" t="inlineStr"/>
+      <c r="J712" t="n">
+        <v>3.066</v>
+      </c>
+      <c r="K712" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L712" t="n">
         <v>1</v>
       </c>
@@ -24955,8 +24155,14 @@
         <v>0</v>
       </c>
       <c r="I713" t="inlineStr"/>
-      <c r="J713" t="inlineStr"/>
-      <c r="K713" t="inlineStr"/>
+      <c r="J713" t="n">
+        <v>3.066</v>
+      </c>
+      <c r="K713" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L713" t="n">
         <v>1</v>
       </c>
@@ -24988,8 +24194,14 @@
         <v>0</v>
       </c>
       <c r="I714" t="inlineStr"/>
-      <c r="J714" t="inlineStr"/>
-      <c r="K714" t="inlineStr"/>
+      <c r="J714" t="n">
+        <v>3.066</v>
+      </c>
+      <c r="K714" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L714" t="n">
         <v>1</v>
       </c>
@@ -25021,8 +24233,14 @@
         <v>0</v>
       </c>
       <c r="I715" t="inlineStr"/>
-      <c r="J715" t="inlineStr"/>
-      <c r="K715" t="inlineStr"/>
+      <c r="J715" t="n">
+        <v>3.066</v>
+      </c>
+      <c r="K715" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L715" t="n">
         <v>1</v>
       </c>
@@ -25054,8 +24272,14 @@
         <v>0</v>
       </c>
       <c r="I716" t="inlineStr"/>
-      <c r="J716" t="inlineStr"/>
-      <c r="K716" t="inlineStr"/>
+      <c r="J716" t="n">
+        <v>3.066</v>
+      </c>
+      <c r="K716" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L716" t="n">
         <v>1</v>
       </c>
@@ -25087,8 +24311,14 @@
         <v>0</v>
       </c>
       <c r="I717" t="inlineStr"/>
-      <c r="J717" t="inlineStr"/>
-      <c r="K717" t="inlineStr"/>
+      <c r="J717" t="n">
+        <v>3.066</v>
+      </c>
+      <c r="K717" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L717" t="n">
         <v>1</v>
       </c>
@@ -25120,8 +24350,14 @@
         <v>0</v>
       </c>
       <c r="I718" t="inlineStr"/>
-      <c r="J718" t="inlineStr"/>
-      <c r="K718" t="inlineStr"/>
+      <c r="J718" t="n">
+        <v>3.066</v>
+      </c>
+      <c r="K718" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L718" t="n">
         <v>1</v>
       </c>
@@ -25153,8 +24389,14 @@
         <v>0</v>
       </c>
       <c r="I719" t="inlineStr"/>
-      <c r="J719" t="inlineStr"/>
-      <c r="K719" t="inlineStr"/>
+      <c r="J719" t="n">
+        <v>3.066</v>
+      </c>
+      <c r="K719" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L719" t="n">
         <v>1</v>
       </c>
@@ -25186,8 +24428,14 @@
         <v>0</v>
       </c>
       <c r="I720" t="inlineStr"/>
-      <c r="J720" t="inlineStr"/>
-      <c r="K720" t="inlineStr"/>
+      <c r="J720" t="n">
+        <v>3.066</v>
+      </c>
+      <c r="K720" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L720" t="n">
         <v>1</v>
       </c>
@@ -25219,8 +24467,14 @@
         <v>0</v>
       </c>
       <c r="I721" t="inlineStr"/>
-      <c r="J721" t="inlineStr"/>
-      <c r="K721" t="inlineStr"/>
+      <c r="J721" t="n">
+        <v>3.066</v>
+      </c>
+      <c r="K721" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L721" t="n">
         <v>1</v>
       </c>
@@ -25252,8 +24506,14 @@
         <v>0</v>
       </c>
       <c r="I722" t="inlineStr"/>
-      <c r="J722" t="inlineStr"/>
-      <c r="K722" t="inlineStr"/>
+      <c r="J722" t="n">
+        <v>3.066</v>
+      </c>
+      <c r="K722" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L722" t="n">
         <v>1</v>
       </c>
@@ -25285,8 +24545,14 @@
         <v>0</v>
       </c>
       <c r="I723" t="inlineStr"/>
-      <c r="J723" t="inlineStr"/>
-      <c r="K723" t="inlineStr"/>
+      <c r="J723" t="n">
+        <v>3.066</v>
+      </c>
+      <c r="K723" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L723" t="n">
         <v>1</v>
       </c>
@@ -25318,8 +24584,14 @@
         <v>0</v>
       </c>
       <c r="I724" t="inlineStr"/>
-      <c r="J724" t="inlineStr"/>
-      <c r="K724" t="inlineStr"/>
+      <c r="J724" t="n">
+        <v>3.066</v>
+      </c>
+      <c r="K724" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L724" t="n">
         <v>1</v>
       </c>
@@ -25351,8 +24623,14 @@
         <v>0</v>
       </c>
       <c r="I725" t="inlineStr"/>
-      <c r="J725" t="inlineStr"/>
-      <c r="K725" t="inlineStr"/>
+      <c r="J725" t="n">
+        <v>3.066</v>
+      </c>
+      <c r="K725" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L725" t="n">
         <v>1</v>
       </c>
@@ -25384,8 +24662,14 @@
         <v>0</v>
       </c>
       <c r="I726" t="inlineStr"/>
-      <c r="J726" t="inlineStr"/>
-      <c r="K726" t="inlineStr"/>
+      <c r="J726" t="n">
+        <v>3.066</v>
+      </c>
+      <c r="K726" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L726" t="n">
         <v>1</v>
       </c>
@@ -25417,8 +24701,14 @@
         <v>0</v>
       </c>
       <c r="I727" t="inlineStr"/>
-      <c r="J727" t="inlineStr"/>
-      <c r="K727" t="inlineStr"/>
+      <c r="J727" t="n">
+        <v>3.066</v>
+      </c>
+      <c r="K727" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L727" t="n">
         <v>1</v>
       </c>
@@ -25450,8 +24740,14 @@
         <v>0</v>
       </c>
       <c r="I728" t="inlineStr"/>
-      <c r="J728" t="inlineStr"/>
-      <c r="K728" t="inlineStr"/>
+      <c r="J728" t="n">
+        <v>3.066</v>
+      </c>
+      <c r="K728" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L728" t="n">
         <v>1</v>
       </c>
@@ -25483,8 +24779,14 @@
         <v>0</v>
       </c>
       <c r="I729" t="inlineStr"/>
-      <c r="J729" t="inlineStr"/>
-      <c r="K729" t="inlineStr"/>
+      <c r="J729" t="n">
+        <v>3.066</v>
+      </c>
+      <c r="K729" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L729" t="n">
         <v>1</v>
       </c>
@@ -25516,8 +24818,14 @@
         <v>0</v>
       </c>
       <c r="I730" t="inlineStr"/>
-      <c r="J730" t="inlineStr"/>
-      <c r="K730" t="inlineStr"/>
+      <c r="J730" t="n">
+        <v>3.066</v>
+      </c>
+      <c r="K730" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L730" t="n">
         <v>1</v>
       </c>
@@ -25549,8 +24857,14 @@
         <v>0</v>
       </c>
       <c r="I731" t="inlineStr"/>
-      <c r="J731" t="inlineStr"/>
-      <c r="K731" t="inlineStr"/>
+      <c r="J731" t="n">
+        <v>3.066</v>
+      </c>
+      <c r="K731" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L731" t="n">
         <v>1</v>
       </c>
@@ -25582,8 +24896,14 @@
         <v>0</v>
       </c>
       <c r="I732" t="inlineStr"/>
-      <c r="J732" t="inlineStr"/>
-      <c r="K732" t="inlineStr"/>
+      <c r="J732" t="n">
+        <v>3.066</v>
+      </c>
+      <c r="K732" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L732" t="n">
         <v>1</v>
       </c>
@@ -25612,15 +24932,17 @@
         <v>-5810294.435367493</v>
       </c>
       <c r="H733" t="n">
-        <v>2</v>
-      </c>
-      <c r="I733" t="n">
-        <v>3.098</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I733" t="inlineStr"/>
       <c r="J733" t="n">
-        <v>3.098</v>
-      </c>
-      <c r="K733" t="inlineStr"/>
+        <v>3.066</v>
+      </c>
+      <c r="K733" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L733" t="n">
         <v>1</v>
       </c>
@@ -25653,11 +24975,11 @@
       </c>
       <c r="I734" t="inlineStr"/>
       <c r="J734" t="n">
-        <v>3.098</v>
+        <v>3.066</v>
       </c>
       <c r="K734" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L734" t="n">
@@ -25692,11 +25014,11 @@
       </c>
       <c r="I735" t="inlineStr"/>
       <c r="J735" t="n">
-        <v>3.098</v>
+        <v>3.066</v>
       </c>
       <c r="K735" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L735" t="n">
@@ -25731,7 +25053,7 @@
       </c>
       <c r="I736" t="inlineStr"/>
       <c r="J736" t="n">
-        <v>3.098</v>
+        <v>3.066</v>
       </c>
       <c r="K736" t="inlineStr">
         <is>
@@ -25770,7 +25092,7 @@
       </c>
       <c r="I737" t="inlineStr"/>
       <c r="J737" t="n">
-        <v>3.098</v>
+        <v>3.066</v>
       </c>
       <c r="K737" t="inlineStr">
         <is>
@@ -25809,7 +25131,7 @@
       </c>
       <c r="I738" t="inlineStr"/>
       <c r="J738" t="n">
-        <v>3.098</v>
+        <v>3.066</v>
       </c>
       <c r="K738" t="inlineStr">
         <is>
@@ -25848,7 +25170,7 @@
       </c>
       <c r="I739" t="inlineStr"/>
       <c r="J739" t="n">
-        <v>3.098</v>
+        <v>3.066</v>
       </c>
       <c r="K739" t="inlineStr">
         <is>
@@ -25887,7 +25209,7 @@
       </c>
       <c r="I740" t="inlineStr"/>
       <c r="J740" t="n">
-        <v>3.098</v>
+        <v>3.066</v>
       </c>
       <c r="K740" t="inlineStr">
         <is>
@@ -25926,7 +25248,7 @@
       </c>
       <c r="I741" t="inlineStr"/>
       <c r="J741" t="n">
-        <v>3.098</v>
+        <v>3.066</v>
       </c>
       <c r="K741" t="inlineStr">
         <is>
@@ -25965,7 +25287,7 @@
       </c>
       <c r="I742" t="inlineStr"/>
       <c r="J742" t="n">
-        <v>3.098</v>
+        <v>3.066</v>
       </c>
       <c r="K742" t="inlineStr">
         <is>
@@ -26004,7 +25326,7 @@
       </c>
       <c r="I743" t="inlineStr"/>
       <c r="J743" t="n">
-        <v>3.098</v>
+        <v>3.066</v>
       </c>
       <c r="K743" t="inlineStr">
         <is>
@@ -26043,7 +25365,7 @@
       </c>
       <c r="I744" t="inlineStr"/>
       <c r="J744" t="n">
-        <v>3.098</v>
+        <v>3.066</v>
       </c>
       <c r="K744" t="inlineStr">
         <is>
@@ -26082,7 +25404,7 @@
       </c>
       <c r="I745" t="inlineStr"/>
       <c r="J745" t="n">
-        <v>3.098</v>
+        <v>3.066</v>
       </c>
       <c r="K745" t="inlineStr">
         <is>
@@ -26121,7 +25443,7 @@
       </c>
       <c r="I746" t="inlineStr"/>
       <c r="J746" t="n">
-        <v>3.098</v>
+        <v>3.066</v>
       </c>
       <c r="K746" t="inlineStr">
         <is>
@@ -26160,7 +25482,7 @@
       </c>
       <c r="I747" t="inlineStr"/>
       <c r="J747" t="n">
-        <v>3.098</v>
+        <v>3.066</v>
       </c>
       <c r="K747" t="inlineStr">
         <is>
@@ -26199,7 +25521,7 @@
       </c>
       <c r="I748" t="inlineStr"/>
       <c r="J748" t="n">
-        <v>3.098</v>
+        <v>3.066</v>
       </c>
       <c r="K748" t="inlineStr">
         <is>
@@ -26238,7 +25560,7 @@
       </c>
       <c r="I749" t="inlineStr"/>
       <c r="J749" t="n">
-        <v>3.098</v>
+        <v>3.066</v>
       </c>
       <c r="K749" t="inlineStr">
         <is>
@@ -26277,7 +25599,7 @@
       </c>
       <c r="I750" t="inlineStr"/>
       <c r="J750" t="n">
-        <v>3.098</v>
+        <v>3.066</v>
       </c>
       <c r="K750" t="inlineStr">
         <is>
@@ -26316,7 +25638,7 @@
       </c>
       <c r="I751" t="inlineStr"/>
       <c r="J751" t="n">
-        <v>3.098</v>
+        <v>3.066</v>
       </c>
       <c r="K751" t="inlineStr">
         <is>
@@ -26355,7 +25677,7 @@
       </c>
       <c r="I752" t="inlineStr"/>
       <c r="J752" t="n">
-        <v>3.098</v>
+        <v>3.066</v>
       </c>
       <c r="K752" t="inlineStr">
         <is>
@@ -26394,7 +25716,7 @@
       </c>
       <c r="I753" t="inlineStr"/>
       <c r="J753" t="n">
-        <v>3.098</v>
+        <v>3.066</v>
       </c>
       <c r="K753" t="inlineStr">
         <is>
@@ -26433,7 +25755,7 @@
       </c>
       <c r="I754" t="inlineStr"/>
       <c r="J754" t="n">
-        <v>3.098</v>
+        <v>3.066</v>
       </c>
       <c r="K754" t="inlineStr">
         <is>
@@ -26472,7 +25794,7 @@
       </c>
       <c r="I755" t="inlineStr"/>
       <c r="J755" t="n">
-        <v>3.098</v>
+        <v>3.066</v>
       </c>
       <c r="K755" t="inlineStr">
         <is>
@@ -26511,7 +25833,7 @@
       </c>
       <c r="I756" t="inlineStr"/>
       <c r="J756" t="n">
-        <v>3.098</v>
+        <v>3.066</v>
       </c>
       <c r="K756" t="inlineStr">
         <is>
@@ -26550,7 +25872,7 @@
       </c>
       <c r="I757" t="inlineStr"/>
       <c r="J757" t="n">
-        <v>3.098</v>
+        <v>3.066</v>
       </c>
       <c r="K757" t="inlineStr">
         <is>
@@ -26589,7 +25911,7 @@
       </c>
       <c r="I758" t="inlineStr"/>
       <c r="J758" t="n">
-        <v>3.098</v>
+        <v>3.066</v>
       </c>
       <c r="K758" t="inlineStr">
         <is>
@@ -26628,7 +25950,7 @@
       </c>
       <c r="I759" t="inlineStr"/>
       <c r="J759" t="n">
-        <v>3.098</v>
+        <v>3.066</v>
       </c>
       <c r="K759" t="inlineStr">
         <is>
@@ -26667,7 +25989,7 @@
       </c>
       <c r="I760" t="inlineStr"/>
       <c r="J760" t="n">
-        <v>3.098</v>
+        <v>3.066</v>
       </c>
       <c r="K760" t="inlineStr">
         <is>
@@ -26706,7 +26028,7 @@
       </c>
       <c r="I761" t="inlineStr"/>
       <c r="J761" t="n">
-        <v>3.098</v>
+        <v>3.066</v>
       </c>
       <c r="K761" t="inlineStr">
         <is>
@@ -26745,7 +26067,7 @@
       </c>
       <c r="I762" t="inlineStr"/>
       <c r="J762" t="n">
-        <v>3.098</v>
+        <v>3.066</v>
       </c>
       <c r="K762" t="inlineStr">
         <is>
@@ -26784,7 +26106,7 @@
       </c>
       <c r="I763" t="inlineStr"/>
       <c r="J763" t="n">
-        <v>3.098</v>
+        <v>3.066</v>
       </c>
       <c r="K763" t="inlineStr">
         <is>
@@ -26823,7 +26145,7 @@
       </c>
       <c r="I764" t="inlineStr"/>
       <c r="J764" t="n">
-        <v>3.098</v>
+        <v>3.066</v>
       </c>
       <c r="K764" t="inlineStr">
         <is>
@@ -26862,7 +26184,7 @@
       </c>
       <c r="I765" t="inlineStr"/>
       <c r="J765" t="n">
-        <v>3.098</v>
+        <v>3.066</v>
       </c>
       <c r="K765" t="inlineStr">
         <is>
@@ -26901,7 +26223,7 @@
       </c>
       <c r="I766" t="inlineStr"/>
       <c r="J766" t="n">
-        <v>3.098</v>
+        <v>3.066</v>
       </c>
       <c r="K766" t="inlineStr">
         <is>
@@ -26940,7 +26262,7 @@
       </c>
       <c r="I767" t="inlineStr"/>
       <c r="J767" t="n">
-        <v>3.098</v>
+        <v>3.066</v>
       </c>
       <c r="K767" t="inlineStr">
         <is>
@@ -26979,7 +26301,7 @@
       </c>
       <c r="I768" t="inlineStr"/>
       <c r="J768" t="n">
-        <v>3.098</v>
+        <v>3.066</v>
       </c>
       <c r="K768" t="inlineStr">
         <is>
@@ -27018,7 +26340,7 @@
       </c>
       <c r="I769" t="inlineStr"/>
       <c r="J769" t="n">
-        <v>3.098</v>
+        <v>3.066</v>
       </c>
       <c r="K769" t="inlineStr">
         <is>
@@ -27057,7 +26379,7 @@
       </c>
       <c r="I770" t="inlineStr"/>
       <c r="J770" t="n">
-        <v>3.098</v>
+        <v>3.066</v>
       </c>
       <c r="K770" t="inlineStr">
         <is>
@@ -27096,7 +26418,7 @@
       </c>
       <c r="I771" t="inlineStr"/>
       <c r="J771" t="n">
-        <v>3.098</v>
+        <v>3.066</v>
       </c>
       <c r="K771" t="inlineStr">
         <is>
@@ -27135,7 +26457,7 @@
       </c>
       <c r="I772" t="inlineStr"/>
       <c r="J772" t="n">
-        <v>3.098</v>
+        <v>3.066</v>
       </c>
       <c r="K772" t="inlineStr">
         <is>
@@ -27174,7 +26496,7 @@
       </c>
       <c r="I773" t="inlineStr"/>
       <c r="J773" t="n">
-        <v>3.098</v>
+        <v>3.066</v>
       </c>
       <c r="K773" t="inlineStr">
         <is>
@@ -27213,7 +26535,7 @@
       </c>
       <c r="I774" t="inlineStr"/>
       <c r="J774" t="n">
-        <v>3.098</v>
+        <v>3.066</v>
       </c>
       <c r="K774" t="inlineStr">
         <is>
@@ -27252,7 +26574,7 @@
       </c>
       <c r="I775" t="inlineStr"/>
       <c r="J775" t="n">
-        <v>3.098</v>
+        <v>3.066</v>
       </c>
       <c r="K775" t="inlineStr">
         <is>
@@ -27291,7 +26613,7 @@
       </c>
       <c r="I776" t="inlineStr"/>
       <c r="J776" t="n">
-        <v>3.098</v>
+        <v>3.066</v>
       </c>
       <c r="K776" t="inlineStr">
         <is>
@@ -27330,7 +26652,7 @@
       </c>
       <c r="I777" t="inlineStr"/>
       <c r="J777" t="n">
-        <v>3.098</v>
+        <v>3.066</v>
       </c>
       <c r="K777" t="inlineStr">
         <is>
@@ -27369,7 +26691,7 @@
       </c>
       <c r="I778" t="inlineStr"/>
       <c r="J778" t="n">
-        <v>3.098</v>
+        <v>3.066</v>
       </c>
       <c r="K778" t="inlineStr">
         <is>
@@ -27408,7 +26730,7 @@
       </c>
       <c r="I779" t="inlineStr"/>
       <c r="J779" t="n">
-        <v>3.098</v>
+        <v>3.066</v>
       </c>
       <c r="K779" t="inlineStr">
         <is>
@@ -27447,7 +26769,7 @@
       </c>
       <c r="I780" t="inlineStr"/>
       <c r="J780" t="n">
-        <v>3.098</v>
+        <v>3.066</v>
       </c>
       <c r="K780" t="inlineStr">
         <is>
@@ -27486,7 +26808,7 @@
       </c>
       <c r="I781" t="inlineStr"/>
       <c r="J781" t="n">
-        <v>3.098</v>
+        <v>3.066</v>
       </c>
       <c r="K781" t="inlineStr">
         <is>
@@ -27525,7 +26847,7 @@
       </c>
       <c r="I782" t="inlineStr"/>
       <c r="J782" t="n">
-        <v>3.098</v>
+        <v>3.066</v>
       </c>
       <c r="K782" t="inlineStr">
         <is>
@@ -27564,7 +26886,7 @@
       </c>
       <c r="I783" t="inlineStr"/>
       <c r="J783" t="n">
-        <v>3.098</v>
+        <v>3.066</v>
       </c>
       <c r="K783" t="inlineStr">
         <is>
@@ -27603,7 +26925,7 @@
       </c>
       <c r="I784" t="inlineStr"/>
       <c r="J784" t="n">
-        <v>3.098</v>
+        <v>3.066</v>
       </c>
       <c r="K784" t="inlineStr">
         <is>
@@ -27642,7 +26964,7 @@
       </c>
       <c r="I785" t="inlineStr"/>
       <c r="J785" t="n">
-        <v>3.098</v>
+        <v>3.066</v>
       </c>
       <c r="K785" t="inlineStr">
         <is>
@@ -27681,7 +27003,7 @@
       </c>
       <c r="I786" t="inlineStr"/>
       <c r="J786" t="n">
-        <v>3.098</v>
+        <v>3.066</v>
       </c>
       <c r="K786" t="inlineStr">
         <is>
@@ -27720,7 +27042,7 @@
       </c>
       <c r="I787" t="inlineStr"/>
       <c r="J787" t="n">
-        <v>3.098</v>
+        <v>3.066</v>
       </c>
       <c r="K787" t="inlineStr">
         <is>
@@ -27759,7 +27081,7 @@
       </c>
       <c r="I788" t="inlineStr"/>
       <c r="J788" t="n">
-        <v>3.098</v>
+        <v>3.066</v>
       </c>
       <c r="K788" t="inlineStr">
         <is>
@@ -27798,7 +27120,7 @@
       </c>
       <c r="I789" t="inlineStr"/>
       <c r="J789" t="n">
-        <v>3.098</v>
+        <v>3.066</v>
       </c>
       <c r="K789" t="inlineStr">
         <is>
@@ -27837,7 +27159,7 @@
       </c>
       <c r="I790" t="inlineStr"/>
       <c r="J790" t="n">
-        <v>3.098</v>
+        <v>3.066</v>
       </c>
       <c r="K790" t="inlineStr">
         <is>
@@ -27876,7 +27198,7 @@
       </c>
       <c r="I791" t="inlineStr"/>
       <c r="J791" t="n">
-        <v>3.098</v>
+        <v>3.066</v>
       </c>
       <c r="K791" t="inlineStr">
         <is>
@@ -27915,7 +27237,7 @@
       </c>
       <c r="I792" t="inlineStr"/>
       <c r="J792" t="n">
-        <v>3.098</v>
+        <v>3.066</v>
       </c>
       <c r="K792" t="inlineStr">
         <is>
@@ -27954,7 +27276,7 @@
       </c>
       <c r="I793" t="inlineStr"/>
       <c r="J793" t="n">
-        <v>3.098</v>
+        <v>3.066</v>
       </c>
       <c r="K793" t="inlineStr">
         <is>
@@ -27993,7 +27315,7 @@
       </c>
       <c r="I794" t="inlineStr"/>
       <c r="J794" t="n">
-        <v>3.098</v>
+        <v>3.066</v>
       </c>
       <c r="K794" t="inlineStr">
         <is>
@@ -28032,7 +27354,7 @@
       </c>
       <c r="I795" t="inlineStr"/>
       <c r="J795" t="n">
-        <v>3.098</v>
+        <v>3.066</v>
       </c>
       <c r="K795" t="inlineStr">
         <is>
@@ -28071,7 +27393,7 @@
       </c>
       <c r="I796" t="inlineStr"/>
       <c r="J796" t="n">
-        <v>3.098</v>
+        <v>3.066</v>
       </c>
       <c r="K796" t="inlineStr">
         <is>
@@ -28110,7 +27432,7 @@
       </c>
       <c r="I797" t="inlineStr"/>
       <c r="J797" t="n">
-        <v>3.098</v>
+        <v>3.066</v>
       </c>
       <c r="K797" t="inlineStr">
         <is>
@@ -28149,7 +27471,7 @@
       </c>
       <c r="I798" t="inlineStr"/>
       <c r="J798" t="n">
-        <v>3.098</v>
+        <v>3.066</v>
       </c>
       <c r="K798" t="inlineStr">
         <is>
@@ -28188,7 +27510,7 @@
       </c>
       <c r="I799" t="inlineStr"/>
       <c r="J799" t="n">
-        <v>3.098</v>
+        <v>3.066</v>
       </c>
       <c r="K799" t="inlineStr">
         <is>
@@ -28227,7 +27549,7 @@
       </c>
       <c r="I800" t="inlineStr"/>
       <c r="J800" t="n">
-        <v>3.098</v>
+        <v>3.066</v>
       </c>
       <c r="K800" t="inlineStr">
         <is>
@@ -28240,6 +27562,6 @@
       <c r="M800" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-25 BackTest CON.xlsx
+++ b/BackTest/2020-01-25 BackTest CON.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -8404,7 +8404,7 @@
         <v>-2886580.620399996</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -9427,7 +9427,7 @@
         <v>-3079282.925811318</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -9460,7 +9460,7 @@
         <v>-3213990.426511318</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -9493,7 +9493,7 @@
         <v>-3193967.056511318</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -9790,7 +9790,7 @@
         <v>-3514056.282511318</v>
       </c>
       <c r="H285" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -9823,7 +9823,7 @@
         <v>-3416736.972511318</v>
       </c>
       <c r="H286" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -9856,7 +9856,7 @@
         <v>-3416736.972511318</v>
       </c>
       <c r="H287" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -9889,7 +9889,7 @@
         <v>-3416736.972511318</v>
       </c>
       <c r="H288" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -9922,7 +9922,7 @@
         <v>-3416236.972511318</v>
       </c>
       <c r="H289" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -9955,7 +9955,7 @@
         <v>-3416261.493511318</v>
       </c>
       <c r="H290" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -9988,7 +9988,7 @@
         <v>-3416261.493511318</v>
       </c>
       <c r="H291" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -10021,7 +10021,7 @@
         <v>-3416261.493511318</v>
       </c>
       <c r="H292" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -10054,7 +10054,7 @@
         <v>-3416261.493511318</v>
       </c>
       <c r="H293" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -10087,7 +10087,7 @@
         <v>-3523755.626511318</v>
       </c>
       <c r="H294" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -10120,7 +10120,7 @@
         <v>-3523755.626511318</v>
       </c>
       <c r="H295" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -10153,7 +10153,7 @@
         <v>-3523755.626511318</v>
       </c>
       <c r="H296" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -10186,7 +10186,7 @@
         <v>-3523755.626511318</v>
       </c>
       <c r="H297" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -10219,7 +10219,7 @@
         <v>-3452668.296511318</v>
       </c>
       <c r="H298" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -10252,7 +10252,7 @@
         <v>-3552791.296511318</v>
       </c>
       <c r="H299" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -10285,7 +10285,7 @@
         <v>-3552791.296511318</v>
       </c>
       <c r="H300" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -10318,7 +10318,7 @@
         <v>-3552791.296511318</v>
       </c>
       <c r="H301" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -10351,7 +10351,7 @@
         <v>-3552791.296511318</v>
       </c>
       <c r="H302" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -10384,7 +10384,7 @@
         <v>-3464683.056511318</v>
       </c>
       <c r="H303" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -10681,7 +10681,7 @@
         <v>-3535970.386511318</v>
       </c>
       <c r="H312" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -10714,7 +10714,7 @@
         <v>-3549987.606511318</v>
       </c>
       <c r="H313" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -10747,7 +10747,7 @@
         <v>-3549987.606511318</v>
       </c>
       <c r="H314" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -10780,7 +10780,7 @@
         <v>-3447662.146511318</v>
       </c>
       <c r="H315" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -10813,7 +10813,7 @@
         <v>-3447662.146511318</v>
       </c>
       <c r="H316" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
@@ -10846,7 +10846,7 @@
         <v>-3447662.146511318</v>
       </c>
       <c r="H317" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
@@ -10879,7 +10879,7 @@
         <v>-3436052.612611318</v>
       </c>
       <c r="H318" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
@@ -10912,7 +10912,7 @@
         <v>-3436052.612611318</v>
       </c>
       <c r="H319" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -10945,7 +10945,7 @@
         <v>-3529557.468711318</v>
       </c>
       <c r="H320" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
@@ -10978,7 +10978,7 @@
         <v>-3455266.448711318</v>
       </c>
       <c r="H321" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
@@ -11011,7 +11011,7 @@
         <v>-3455714.999711318</v>
       </c>
       <c r="H322" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -11044,7 +11044,7 @@
         <v>-3455714.999711318</v>
       </c>
       <c r="H323" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
@@ -11077,7 +11077,7 @@
         <v>-3455714.999711318</v>
       </c>
       <c r="H324" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
@@ -11110,7 +11110,7 @@
         <v>-3455714.999711318</v>
       </c>
       <c r="H325" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
@@ -11143,7 +11143,7 @@
         <v>-3455714.999711318</v>
       </c>
       <c r="H326" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
@@ -11176,7 +11176,7 @@
         <v>-3550030.619711318</v>
       </c>
       <c r="H327" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
@@ -11209,7 +11209,7 @@
         <v>-3550030.619711318</v>
       </c>
       <c r="H328" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
@@ -11242,7 +11242,7 @@
         <v>-3550030.619711318</v>
       </c>
       <c r="H329" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
@@ -11275,7 +11275,7 @@
         <v>-3550030.619711318</v>
       </c>
       <c r="H330" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
@@ -11308,7 +11308,7 @@
         <v>-3550030.619711318</v>
       </c>
       <c r="H331" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
@@ -11341,7 +11341,7 @@
         <v>-3550030.619711318</v>
       </c>
       <c r="H332" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
@@ -11374,7 +11374,7 @@
         <v>-3550030.619711318</v>
       </c>
       <c r="H333" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
@@ -11407,7 +11407,7 @@
         <v>-3551230.619711318</v>
       </c>
       <c r="H334" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
@@ -11440,7 +11440,7 @@
         <v>-3552965.583911318</v>
       </c>
       <c r="H335" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
@@ -11473,7 +11473,7 @@
         <v>-3552965.583911318</v>
       </c>
       <c r="H336" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -11506,7 +11506,7 @@
         <v>-3552965.583911318</v>
       </c>
       <c r="H337" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
@@ -11539,7 +11539,7 @@
         <v>-3552965.583911318</v>
       </c>
       <c r="H338" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
@@ -11572,7 +11572,7 @@
         <v>-3552965.583911318</v>
       </c>
       <c r="H339" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
@@ -11605,7 +11605,7 @@
         <v>-3552965.583911318</v>
       </c>
       <c r="H340" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -11638,7 +11638,7 @@
         <v>-3552965.583911318</v>
       </c>
       <c r="H341" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
@@ -11671,7 +11671,7 @@
         <v>-3552965.583911318</v>
       </c>
       <c r="H342" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
@@ -11704,7 +11704,7 @@
         <v>-3553165.583911318</v>
       </c>
       <c r="H343" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
@@ -11737,7 +11737,7 @@
         <v>-3476288.033411318</v>
       </c>
       <c r="H344" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
@@ -11770,7 +11770,7 @@
         <v>-3650502.053411318</v>
       </c>
       <c r="H345" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
@@ -11803,7 +11803,7 @@
         <v>-3650502.053411318</v>
       </c>
       <c r="H346" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
@@ -11836,7 +11836,7 @@
         <v>-3554727.128811318</v>
       </c>
       <c r="H347" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
@@ -11869,7 +11869,7 @@
         <v>-3554727.128811318</v>
       </c>
       <c r="H348" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
@@ -11902,7 +11902,7 @@
         <v>-3554727.128811318</v>
       </c>
       <c r="H349" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
@@ -11935,7 +11935,7 @@
         <v>-3554927.128811318</v>
       </c>
       <c r="H350" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
@@ -11968,7 +11968,7 @@
         <v>-3610523.174211318</v>
       </c>
       <c r="H351" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
@@ -12001,7 +12001,7 @@
         <v>-3638589.407211318</v>
       </c>
       <c r="H352" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
@@ -12034,7 +12034,7 @@
         <v>-3547477.477211318</v>
       </c>
       <c r="H353" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
@@ -12067,7 +12067,7 @@
         <v>-3548521.829411318</v>
       </c>
       <c r="H354" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
@@ -12100,7 +12100,7 @@
         <v>-3456408.669411318</v>
       </c>
       <c r="H355" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
@@ -12133,7 +12133,7 @@
         <v>-3543671.327211318</v>
       </c>
       <c r="H356" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
@@ -12166,7 +12166,7 @@
         <v>-3634977.107211318</v>
       </c>
       <c r="H357" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
@@ -12199,7 +12199,7 @@
         <v>-3738303.797211318</v>
       </c>
       <c r="H358" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
@@ -12232,7 +12232,7 @@
         <v>-3598767.201967502</v>
       </c>
       <c r="H359" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
@@ -12265,7 +12265,7 @@
         <v>-3667852.071967503</v>
       </c>
       <c r="H360" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
@@ -12298,7 +12298,7 @@
         <v>-3652833.621967502</v>
       </c>
       <c r="H361" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
@@ -12331,7 +12331,7 @@
         <v>-3758964.001967502</v>
       </c>
       <c r="H362" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
@@ -12364,7 +12364,7 @@
         <v>-3662845.921967502</v>
       </c>
       <c r="H363" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
@@ -12397,7 +12397,7 @@
         <v>-3594362.281967502</v>
       </c>
       <c r="H364" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
@@ -12430,7 +12430,7 @@
         <v>-3594362.281967502</v>
       </c>
       <c r="H365" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
@@ -12463,7 +12463,7 @@
         <v>-3594062.281967502</v>
       </c>
       <c r="H366" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
@@ -12496,7 +12496,7 @@
         <v>-3614503.021267502</v>
       </c>
       <c r="H367" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
@@ -12529,7 +12529,7 @@
         <v>-3614503.021267502</v>
       </c>
       <c r="H368" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
@@ -12562,7 +12562,7 @@
         <v>-3614503.021267502</v>
       </c>
       <c r="H369" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
@@ -12595,7 +12595,7 @@
         <v>-3614503.021267502</v>
       </c>
       <c r="H370" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
@@ -12628,7 +12628,7 @@
         <v>-3614503.021267502</v>
       </c>
       <c r="H371" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
@@ -12661,7 +12661,7 @@
         <v>-3614503.021267502</v>
       </c>
       <c r="H372" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
@@ -12694,7 +12694,7 @@
         <v>-3614503.021267502</v>
       </c>
       <c r="H373" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
@@ -12727,7 +12727,7 @@
         <v>-3614503.021267502</v>
       </c>
       <c r="H374" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
@@ -12760,7 +12760,7 @@
         <v>-3614503.021267502</v>
       </c>
       <c r="H375" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
@@ -12793,7 +12793,7 @@
         <v>-3614503.021267502</v>
       </c>
       <c r="H376" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
@@ -12826,7 +12826,7 @@
         <v>-3614503.021267502</v>
       </c>
       <c r="H377" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
@@ -12859,7 +12859,7 @@
         <v>-3614503.021267502</v>
       </c>
       <c r="H378" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
@@ -12892,7 +12892,7 @@
         <v>-3614503.021267502</v>
       </c>
       <c r="H379" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
@@ -12925,7 +12925,7 @@
         <v>-3614503.021267502</v>
       </c>
       <c r="H380" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
@@ -12958,7 +12958,7 @@
         <v>-3614503.021267502</v>
       </c>
       <c r="H381" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
@@ -12991,7 +12991,7 @@
         <v>-3614503.021267502</v>
       </c>
       <c r="H382" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
@@ -13024,7 +13024,7 @@
         <v>-3615019.260667502</v>
       </c>
       <c r="H383" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
@@ -13057,7 +13057,7 @@
         <v>-3644054.930667502</v>
       </c>
       <c r="H384" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
@@ -13090,7 +13090,7 @@
         <v>-3644571.370367502</v>
       </c>
       <c r="H385" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
@@ -13123,7 +13123,7 @@
         <v>-3664419.365767502</v>
       </c>
       <c r="H386" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
@@ -13156,7 +13156,7 @@
         <v>-3900586.645767502</v>
       </c>
       <c r="H387" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
@@ -13189,7 +13189,7 @@
         <v>-3900586.645767502</v>
       </c>
       <c r="H388" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
@@ -13255,7 +13255,7 @@
         <v>-3977481.355767502</v>
       </c>
       <c r="H390" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
@@ -13288,7 +13288,7 @@
         <v>-3977481.355767502</v>
       </c>
       <c r="H391" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
@@ -22660,14 +22660,10 @@
         <v>-6320685.334967494</v>
       </c>
       <c r="H675" t="n">
-        <v>1</v>
-      </c>
-      <c r="I675" t="n">
-        <v>3.028</v>
-      </c>
-      <c r="J675" t="n">
-        <v>3.028</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I675" t="inlineStr"/>
+      <c r="J675" t="inlineStr"/>
       <c r="K675" t="inlineStr"/>
       <c r="L675" t="n">
         <v>1</v>
@@ -22697,19 +22693,11 @@
         <v>-6076724.796467494</v>
       </c>
       <c r="H676" t="n">
-        <v>1</v>
-      </c>
-      <c r="I676" t="n">
-        <v>3.03</v>
-      </c>
-      <c r="J676" t="n">
-        <v>3.028</v>
-      </c>
-      <c r="K676" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I676" t="inlineStr"/>
+      <c r="J676" t="inlineStr"/>
+      <c r="K676" t="inlineStr"/>
       <c r="L676" t="n">
         <v>1</v>
       </c>
@@ -22738,19 +22726,11 @@
         <v>-6013647.306467494</v>
       </c>
       <c r="H677" t="n">
-        <v>1</v>
-      </c>
-      <c r="I677" t="n">
-        <v>3.053</v>
-      </c>
-      <c r="J677" t="n">
-        <v>3.028</v>
-      </c>
-      <c r="K677" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I677" t="inlineStr"/>
+      <c r="J677" t="inlineStr"/>
+      <c r="K677" t="inlineStr"/>
       <c r="L677" t="n">
         <v>1</v>
       </c>
@@ -22779,14 +22759,10 @@
         <v>-5918530.456467494</v>
       </c>
       <c r="H678" t="n">
-        <v>1</v>
-      </c>
-      <c r="I678" t="n">
-        <v>3.057</v>
-      </c>
-      <c r="J678" t="n">
-        <v>3.057</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I678" t="inlineStr"/>
+      <c r="J678" t="inlineStr"/>
       <c r="K678" t="inlineStr"/>
       <c r="L678" t="n">
         <v>1</v>
@@ -22822,13 +22798,9 @@
         <v>3.069</v>
       </c>
       <c r="J679" t="n">
-        <v>3.057</v>
-      </c>
-      <c r="K679" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>3.069</v>
+      </c>
+      <c r="K679" t="inlineStr"/>
       <c r="L679" t="n">
         <v>1</v>
       </c>
@@ -22857,13 +22829,11 @@
         <v>-5872473.876467494</v>
       </c>
       <c r="H680" t="n">
-        <v>1</v>
-      </c>
-      <c r="I680" t="n">
-        <v>3.055</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I680" t="inlineStr"/>
       <c r="J680" t="n">
-        <v>3.057</v>
+        <v>3.069</v>
       </c>
       <c r="K680" t="inlineStr">
         <is>
@@ -22904,9 +22874,13 @@
         <v>3.066</v>
       </c>
       <c r="J681" t="n">
-        <v>3.066</v>
-      </c>
-      <c r="K681" t="inlineStr"/>
+        <v>3.069</v>
+      </c>
+      <c r="K681" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L681" t="n">
         <v>1</v>
       </c>
@@ -22941,13 +22915,9 @@
         <v>3.06</v>
       </c>
       <c r="J682" t="n">
-        <v>3.066</v>
-      </c>
-      <c r="K682" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>3.06</v>
+      </c>
+      <c r="K682" t="inlineStr"/>
       <c r="L682" t="n">
         <v>1</v>
       </c>
@@ -22982,7 +22952,7 @@
         <v>3.057</v>
       </c>
       <c r="J683" t="n">
-        <v>3.066</v>
+        <v>3.06</v>
       </c>
       <c r="K683" t="inlineStr">
         <is>
@@ -23023,7 +22993,7 @@
         <v>3.064</v>
       </c>
       <c r="J684" t="n">
-        <v>3.066</v>
+        <v>3.06</v>
       </c>
       <c r="K684" t="inlineStr">
         <is>
@@ -23058,13 +23028,11 @@
         <v>-5509080.108367494</v>
       </c>
       <c r="H685" t="n">
-        <v>1</v>
-      </c>
-      <c r="I685" t="n">
-        <v>3.07</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I685" t="inlineStr"/>
       <c r="J685" t="n">
-        <v>3.066</v>
+        <v>3.06</v>
       </c>
       <c r="K685" t="inlineStr">
         <is>
@@ -23103,7 +23071,7 @@
       </c>
       <c r="I686" t="inlineStr"/>
       <c r="J686" t="n">
-        <v>3.066</v>
+        <v>3.06</v>
       </c>
       <c r="K686" t="inlineStr">
         <is>
@@ -23138,11 +23106,13 @@
         <v>-5483048.128367494</v>
       </c>
       <c r="H687" t="n">
-        <v>0</v>
-      </c>
-      <c r="I687" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I687" t="n">
+        <v>3.076</v>
+      </c>
       <c r="J687" t="n">
-        <v>3.066</v>
+        <v>3.06</v>
       </c>
       <c r="K687" t="inlineStr">
         <is>
@@ -23177,11 +23147,13 @@
         <v>-5556137.918367494</v>
       </c>
       <c r="H688" t="n">
-        <v>0</v>
-      </c>
-      <c r="I688" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I688" t="n">
+        <v>3.082</v>
+      </c>
       <c r="J688" t="n">
-        <v>3.066</v>
+        <v>3.06</v>
       </c>
       <c r="K688" t="inlineStr">
         <is>
@@ -23216,11 +23188,13 @@
         <v>-5533109.628367494</v>
       </c>
       <c r="H689" t="n">
-        <v>0</v>
-      </c>
-      <c r="I689" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I689" t="n">
+        <v>3.072</v>
+      </c>
       <c r="J689" t="n">
-        <v>3.066</v>
+        <v>3.06</v>
       </c>
       <c r="K689" t="inlineStr">
         <is>
@@ -23255,11 +23229,13 @@
         <v>-5474037.058367494</v>
       </c>
       <c r="H690" t="n">
-        <v>0</v>
-      </c>
-      <c r="I690" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I690" t="n">
+        <v>3.078</v>
+      </c>
       <c r="J690" t="n">
-        <v>3.066</v>
+        <v>3.06</v>
       </c>
       <c r="K690" t="inlineStr">
         <is>
@@ -23294,11 +23270,13 @@
         <v>-5579166.208367494</v>
       </c>
       <c r="H691" t="n">
-        <v>0</v>
-      </c>
-      <c r="I691" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I691" t="n">
+        <v>3.083</v>
+      </c>
       <c r="J691" t="n">
-        <v>3.066</v>
+        <v>3.06</v>
       </c>
       <c r="K691" t="inlineStr">
         <is>
@@ -23337,7 +23315,7 @@
       </c>
       <c r="I692" t="inlineStr"/>
       <c r="J692" t="n">
-        <v>3.066</v>
+        <v>3.06</v>
       </c>
       <c r="K692" t="inlineStr">
         <is>
@@ -23372,11 +23350,13 @@
         <v>-5801938.265367494</v>
       </c>
       <c r="H693" t="n">
-        <v>0</v>
-      </c>
-      <c r="I693" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I693" t="n">
+        <v>3.074</v>
+      </c>
       <c r="J693" t="n">
-        <v>3.066</v>
+        <v>3.06</v>
       </c>
       <c r="K693" t="inlineStr">
         <is>
@@ -23411,11 +23391,13 @@
         <v>-5780353.873967494</v>
       </c>
       <c r="H694" t="n">
-        <v>0</v>
-      </c>
-      <c r="I694" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I694" t="n">
+        <v>3.073</v>
+      </c>
       <c r="J694" t="n">
-        <v>3.066</v>
+        <v>3.06</v>
       </c>
       <c r="K694" t="inlineStr">
         <is>
@@ -23450,11 +23432,13 @@
         <v>-5745310.823967494</v>
       </c>
       <c r="H695" t="n">
-        <v>0</v>
-      </c>
-      <c r="I695" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I695" t="n">
+        <v>3.084</v>
+      </c>
       <c r="J695" t="n">
-        <v>3.066</v>
+        <v>3.06</v>
       </c>
       <c r="K695" t="inlineStr">
         <is>
@@ -23493,7 +23477,7 @@
       </c>
       <c r="I696" t="inlineStr"/>
       <c r="J696" t="n">
-        <v>3.066</v>
+        <v>3.06</v>
       </c>
       <c r="K696" t="inlineStr">
         <is>
@@ -23532,7 +23516,7 @@
       </c>
       <c r="I697" t="inlineStr"/>
       <c r="J697" t="n">
-        <v>3.066</v>
+        <v>3.06</v>
       </c>
       <c r="K697" t="inlineStr">
         <is>
@@ -23571,7 +23555,7 @@
       </c>
       <c r="I698" t="inlineStr"/>
       <c r="J698" t="n">
-        <v>3.066</v>
+        <v>3.06</v>
       </c>
       <c r="K698" t="inlineStr">
         <is>
@@ -23610,7 +23594,7 @@
       </c>
       <c r="I699" t="inlineStr"/>
       <c r="J699" t="n">
-        <v>3.066</v>
+        <v>3.06</v>
       </c>
       <c r="K699" t="inlineStr">
         <is>
@@ -23649,7 +23633,7 @@
       </c>
       <c r="I700" t="inlineStr"/>
       <c r="J700" t="n">
-        <v>3.066</v>
+        <v>3.06</v>
       </c>
       <c r="K700" t="inlineStr">
         <is>
@@ -23688,7 +23672,7 @@
       </c>
       <c r="I701" t="inlineStr"/>
       <c r="J701" t="n">
-        <v>3.066</v>
+        <v>3.06</v>
       </c>
       <c r="K701" t="inlineStr">
         <is>
@@ -23727,7 +23711,7 @@
       </c>
       <c r="I702" t="inlineStr"/>
       <c r="J702" t="n">
-        <v>3.066</v>
+        <v>3.06</v>
       </c>
       <c r="K702" t="inlineStr">
         <is>
@@ -23766,7 +23750,7 @@
       </c>
       <c r="I703" t="inlineStr"/>
       <c r="J703" t="n">
-        <v>3.066</v>
+        <v>3.06</v>
       </c>
       <c r="K703" t="inlineStr">
         <is>
@@ -23805,7 +23789,7 @@
       </c>
       <c r="I704" t="inlineStr"/>
       <c r="J704" t="n">
-        <v>3.066</v>
+        <v>3.06</v>
       </c>
       <c r="K704" t="inlineStr">
         <is>
@@ -23844,7 +23828,7 @@
       </c>
       <c r="I705" t="inlineStr"/>
       <c r="J705" t="n">
-        <v>3.066</v>
+        <v>3.06</v>
       </c>
       <c r="K705" t="inlineStr">
         <is>
@@ -23883,7 +23867,7 @@
       </c>
       <c r="I706" t="inlineStr"/>
       <c r="J706" t="n">
-        <v>3.066</v>
+        <v>3.06</v>
       </c>
       <c r="K706" t="inlineStr">
         <is>
@@ -23922,7 +23906,7 @@
       </c>
       <c r="I707" t="inlineStr"/>
       <c r="J707" t="n">
-        <v>3.066</v>
+        <v>3.06</v>
       </c>
       <c r="K707" t="inlineStr">
         <is>
@@ -23961,7 +23945,7 @@
       </c>
       <c r="I708" t="inlineStr"/>
       <c r="J708" t="n">
-        <v>3.066</v>
+        <v>3.06</v>
       </c>
       <c r="K708" t="inlineStr">
         <is>
@@ -24000,7 +23984,7 @@
       </c>
       <c r="I709" t="inlineStr"/>
       <c r="J709" t="n">
-        <v>3.066</v>
+        <v>3.06</v>
       </c>
       <c r="K709" t="inlineStr">
         <is>
@@ -24039,7 +24023,7 @@
       </c>
       <c r="I710" t="inlineStr"/>
       <c r="J710" t="n">
-        <v>3.066</v>
+        <v>3.06</v>
       </c>
       <c r="K710" t="inlineStr">
         <is>
@@ -24078,7 +24062,7 @@
       </c>
       <c r="I711" t="inlineStr"/>
       <c r="J711" t="n">
-        <v>3.066</v>
+        <v>3.06</v>
       </c>
       <c r="K711" t="inlineStr">
         <is>
@@ -24117,7 +24101,7 @@
       </c>
       <c r="I712" t="inlineStr"/>
       <c r="J712" t="n">
-        <v>3.066</v>
+        <v>3.06</v>
       </c>
       <c r="K712" t="inlineStr">
         <is>
@@ -24156,7 +24140,7 @@
       </c>
       <c r="I713" t="inlineStr"/>
       <c r="J713" t="n">
-        <v>3.066</v>
+        <v>3.06</v>
       </c>
       <c r="K713" t="inlineStr">
         <is>
@@ -24195,7 +24179,7 @@
       </c>
       <c r="I714" t="inlineStr"/>
       <c r="J714" t="n">
-        <v>3.066</v>
+        <v>3.06</v>
       </c>
       <c r="K714" t="inlineStr">
         <is>
@@ -24234,7 +24218,7 @@
       </c>
       <c r="I715" t="inlineStr"/>
       <c r="J715" t="n">
-        <v>3.066</v>
+        <v>3.06</v>
       </c>
       <c r="K715" t="inlineStr">
         <is>
@@ -24273,7 +24257,7 @@
       </c>
       <c r="I716" t="inlineStr"/>
       <c r="J716" t="n">
-        <v>3.066</v>
+        <v>3.06</v>
       </c>
       <c r="K716" t="inlineStr">
         <is>
@@ -24312,7 +24296,7 @@
       </c>
       <c r="I717" t="inlineStr"/>
       <c r="J717" t="n">
-        <v>3.066</v>
+        <v>3.06</v>
       </c>
       <c r="K717" t="inlineStr">
         <is>
@@ -24351,7 +24335,7 @@
       </c>
       <c r="I718" t="inlineStr"/>
       <c r="J718" t="n">
-        <v>3.066</v>
+        <v>3.06</v>
       </c>
       <c r="K718" t="inlineStr">
         <is>
@@ -24390,7 +24374,7 @@
       </c>
       <c r="I719" t="inlineStr"/>
       <c r="J719" t="n">
-        <v>3.066</v>
+        <v>3.06</v>
       </c>
       <c r="K719" t="inlineStr">
         <is>
@@ -24429,7 +24413,7 @@
       </c>
       <c r="I720" t="inlineStr"/>
       <c r="J720" t="n">
-        <v>3.066</v>
+        <v>3.06</v>
       </c>
       <c r="K720" t="inlineStr">
         <is>
@@ -24468,7 +24452,7 @@
       </c>
       <c r="I721" t="inlineStr"/>
       <c r="J721" t="n">
-        <v>3.066</v>
+        <v>3.06</v>
       </c>
       <c r="K721" t="inlineStr">
         <is>
@@ -24507,7 +24491,7 @@
       </c>
       <c r="I722" t="inlineStr"/>
       <c r="J722" t="n">
-        <v>3.066</v>
+        <v>3.06</v>
       </c>
       <c r="K722" t="inlineStr">
         <is>
@@ -24542,19 +24526,19 @@
         <v>-5631138.344367493</v>
       </c>
       <c r="H723" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I723" t="inlineStr"/>
       <c r="J723" t="n">
-        <v>3.066</v>
+        <v>3.06</v>
       </c>
       <c r="K723" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L723" t="n">
-        <v>1</v>
+        <v>1.014281045751634</v>
       </c>
       <c r="M723" t="inlineStr"/>
     </row>
@@ -24581,17 +24565,11 @@
         <v>-5631138.344367493</v>
       </c>
       <c r="H724" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I724" t="inlineStr"/>
-      <c r="J724" t="n">
-        <v>3.066</v>
-      </c>
-      <c r="K724" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J724" t="inlineStr"/>
+      <c r="K724" t="inlineStr"/>
       <c r="L724" t="n">
         <v>1</v>
       </c>
@@ -24620,17 +24598,11 @@
         <v>-5735266.264367493</v>
       </c>
       <c r="H725" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I725" t="inlineStr"/>
-      <c r="J725" t="n">
-        <v>3.066</v>
-      </c>
-      <c r="K725" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J725" t="inlineStr"/>
+      <c r="K725" t="inlineStr"/>
       <c r="L725" t="n">
         <v>1</v>
       </c>
@@ -24662,14 +24634,8 @@
         <v>0</v>
       </c>
       <c r="I726" t="inlineStr"/>
-      <c r="J726" t="n">
-        <v>3.066</v>
-      </c>
-      <c r="K726" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J726" t="inlineStr"/>
+      <c r="K726" t="inlineStr"/>
       <c r="L726" t="n">
         <v>1</v>
       </c>
@@ -24701,14 +24667,8 @@
         <v>0</v>
       </c>
       <c r="I727" t="inlineStr"/>
-      <c r="J727" t="n">
-        <v>3.066</v>
-      </c>
-      <c r="K727" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J727" t="inlineStr"/>
+      <c r="K727" t="inlineStr"/>
       <c r="L727" t="n">
         <v>1</v>
       </c>
@@ -24740,14 +24700,8 @@
         <v>0</v>
       </c>
       <c r="I728" t="inlineStr"/>
-      <c r="J728" t="n">
-        <v>3.066</v>
-      </c>
-      <c r="K728" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J728" t="inlineStr"/>
+      <c r="K728" t="inlineStr"/>
       <c r="L728" t="n">
         <v>1</v>
       </c>
@@ -24779,14 +24733,8 @@
         <v>0</v>
       </c>
       <c r="I729" t="inlineStr"/>
-      <c r="J729" t="n">
-        <v>3.066</v>
-      </c>
-      <c r="K729" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J729" t="inlineStr"/>
+      <c r="K729" t="inlineStr"/>
       <c r="L729" t="n">
         <v>1</v>
       </c>
@@ -24818,14 +24766,8 @@
         <v>0</v>
       </c>
       <c r="I730" t="inlineStr"/>
-      <c r="J730" t="n">
-        <v>3.066</v>
-      </c>
-      <c r="K730" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J730" t="inlineStr"/>
+      <c r="K730" t="inlineStr"/>
       <c r="L730" t="n">
         <v>1</v>
       </c>
@@ -24857,14 +24799,8 @@
         <v>0</v>
       </c>
       <c r="I731" t="inlineStr"/>
-      <c r="J731" t="n">
-        <v>3.066</v>
-      </c>
-      <c r="K731" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J731" t="inlineStr"/>
+      <c r="K731" t="inlineStr"/>
       <c r="L731" t="n">
         <v>1</v>
       </c>
@@ -24896,14 +24832,8 @@
         <v>0</v>
       </c>
       <c r="I732" t="inlineStr"/>
-      <c r="J732" t="n">
-        <v>3.066</v>
-      </c>
-      <c r="K732" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J732" t="inlineStr"/>
+      <c r="K732" t="inlineStr"/>
       <c r="L732" t="n">
         <v>1</v>
       </c>
@@ -24935,14 +24865,8 @@
         <v>0</v>
       </c>
       <c r="I733" t="inlineStr"/>
-      <c r="J733" t="n">
-        <v>3.066</v>
-      </c>
-      <c r="K733" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J733" t="inlineStr"/>
+      <c r="K733" t="inlineStr"/>
       <c r="L733" t="n">
         <v>1</v>
       </c>
@@ -24974,14 +24898,8 @@
         <v>0</v>
       </c>
       <c r="I734" t="inlineStr"/>
-      <c r="J734" t="n">
-        <v>3.066</v>
-      </c>
-      <c r="K734" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J734" t="inlineStr"/>
+      <c r="K734" t="inlineStr"/>
       <c r="L734" t="n">
         <v>1</v>
       </c>
@@ -25013,14 +24931,8 @@
         <v>0</v>
       </c>
       <c r="I735" t="inlineStr"/>
-      <c r="J735" t="n">
-        <v>3.066</v>
-      </c>
-      <c r="K735" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J735" t="inlineStr"/>
+      <c r="K735" t="inlineStr"/>
       <c r="L735" t="n">
         <v>1</v>
       </c>
@@ -25052,14 +24964,8 @@
         <v>0</v>
       </c>
       <c r="I736" t="inlineStr"/>
-      <c r="J736" t="n">
-        <v>3.066</v>
-      </c>
-      <c r="K736" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J736" t="inlineStr"/>
+      <c r="K736" t="inlineStr"/>
       <c r="L736" t="n">
         <v>1</v>
       </c>
@@ -25091,14 +24997,8 @@
         <v>0</v>
       </c>
       <c r="I737" t="inlineStr"/>
-      <c r="J737" t="n">
-        <v>3.066</v>
-      </c>
-      <c r="K737" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J737" t="inlineStr"/>
+      <c r="K737" t="inlineStr"/>
       <c r="L737" t="n">
         <v>1</v>
       </c>
@@ -25130,14 +25030,8 @@
         <v>0</v>
       </c>
       <c r="I738" t="inlineStr"/>
-      <c r="J738" t="n">
-        <v>3.066</v>
-      </c>
-      <c r="K738" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J738" t="inlineStr"/>
+      <c r="K738" t="inlineStr"/>
       <c r="L738" t="n">
         <v>1</v>
       </c>
@@ -25169,14 +25063,8 @@
         <v>0</v>
       </c>
       <c r="I739" t="inlineStr"/>
-      <c r="J739" t="n">
-        <v>3.066</v>
-      </c>
-      <c r="K739" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J739" t="inlineStr"/>
+      <c r="K739" t="inlineStr"/>
       <c r="L739" t="n">
         <v>1</v>
       </c>
@@ -25208,14 +25096,8 @@
         <v>0</v>
       </c>
       <c r="I740" t="inlineStr"/>
-      <c r="J740" t="n">
-        <v>3.066</v>
-      </c>
-      <c r="K740" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J740" t="inlineStr"/>
+      <c r="K740" t="inlineStr"/>
       <c r="L740" t="n">
         <v>1</v>
       </c>
@@ -25247,14 +25129,8 @@
         <v>0</v>
       </c>
       <c r="I741" t="inlineStr"/>
-      <c r="J741" t="n">
-        <v>3.066</v>
-      </c>
-      <c r="K741" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J741" t="inlineStr"/>
+      <c r="K741" t="inlineStr"/>
       <c r="L741" t="n">
         <v>1</v>
       </c>
@@ -25286,14 +25162,8 @@
         <v>0</v>
       </c>
       <c r="I742" t="inlineStr"/>
-      <c r="J742" t="n">
-        <v>3.066</v>
-      </c>
-      <c r="K742" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J742" t="inlineStr"/>
+      <c r="K742" t="inlineStr"/>
       <c r="L742" t="n">
         <v>1</v>
       </c>
@@ -25325,14 +25195,8 @@
         <v>0</v>
       </c>
       <c r="I743" t="inlineStr"/>
-      <c r="J743" t="n">
-        <v>3.066</v>
-      </c>
-      <c r="K743" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J743" t="inlineStr"/>
+      <c r="K743" t="inlineStr"/>
       <c r="L743" t="n">
         <v>1</v>
       </c>
@@ -25364,14 +25228,8 @@
         <v>0</v>
       </c>
       <c r="I744" t="inlineStr"/>
-      <c r="J744" t="n">
-        <v>3.066</v>
-      </c>
-      <c r="K744" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J744" t="inlineStr"/>
+      <c r="K744" t="inlineStr"/>
       <c r="L744" t="n">
         <v>1</v>
       </c>
@@ -25403,14 +25261,8 @@
         <v>0</v>
       </c>
       <c r="I745" t="inlineStr"/>
-      <c r="J745" t="n">
-        <v>3.066</v>
-      </c>
-      <c r="K745" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J745" t="inlineStr"/>
+      <c r="K745" t="inlineStr"/>
       <c r="L745" t="n">
         <v>1</v>
       </c>
@@ -25442,14 +25294,8 @@
         <v>0</v>
       </c>
       <c r="I746" t="inlineStr"/>
-      <c r="J746" t="n">
-        <v>3.066</v>
-      </c>
-      <c r="K746" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J746" t="inlineStr"/>
+      <c r="K746" t="inlineStr"/>
       <c r="L746" t="n">
         <v>1</v>
       </c>
@@ -25481,14 +25327,8 @@
         <v>0</v>
       </c>
       <c r="I747" t="inlineStr"/>
-      <c r="J747" t="n">
-        <v>3.066</v>
-      </c>
-      <c r="K747" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J747" t="inlineStr"/>
+      <c r="K747" t="inlineStr"/>
       <c r="L747" t="n">
         <v>1</v>
       </c>
@@ -25520,14 +25360,8 @@
         <v>0</v>
       </c>
       <c r="I748" t="inlineStr"/>
-      <c r="J748" t="n">
-        <v>3.066</v>
-      </c>
-      <c r="K748" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J748" t="inlineStr"/>
+      <c r="K748" t="inlineStr"/>
       <c r="L748" t="n">
         <v>1</v>
       </c>
@@ -25559,14 +25393,8 @@
         <v>0</v>
       </c>
       <c r="I749" t="inlineStr"/>
-      <c r="J749" t="n">
-        <v>3.066</v>
-      </c>
-      <c r="K749" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J749" t="inlineStr"/>
+      <c r="K749" t="inlineStr"/>
       <c r="L749" t="n">
         <v>1</v>
       </c>
@@ -25598,14 +25426,8 @@
         <v>0</v>
       </c>
       <c r="I750" t="inlineStr"/>
-      <c r="J750" t="n">
-        <v>3.066</v>
-      </c>
-      <c r="K750" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J750" t="inlineStr"/>
+      <c r="K750" t="inlineStr"/>
       <c r="L750" t="n">
         <v>1</v>
       </c>
@@ -25637,14 +25459,8 @@
         <v>0</v>
       </c>
       <c r="I751" t="inlineStr"/>
-      <c r="J751" t="n">
-        <v>3.066</v>
-      </c>
-      <c r="K751" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J751" t="inlineStr"/>
+      <c r="K751" t="inlineStr"/>
       <c r="L751" t="n">
         <v>1</v>
       </c>
@@ -25676,14 +25492,8 @@
         <v>0</v>
       </c>
       <c r="I752" t="inlineStr"/>
-      <c r="J752" t="n">
-        <v>3.066</v>
-      </c>
-      <c r="K752" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J752" t="inlineStr"/>
+      <c r="K752" t="inlineStr"/>
       <c r="L752" t="n">
         <v>1</v>
       </c>
@@ -25715,14 +25525,8 @@
         <v>0</v>
       </c>
       <c r="I753" t="inlineStr"/>
-      <c r="J753" t="n">
-        <v>3.066</v>
-      </c>
-      <c r="K753" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J753" t="inlineStr"/>
+      <c r="K753" t="inlineStr"/>
       <c r="L753" t="n">
         <v>1</v>
       </c>
@@ -25754,14 +25558,8 @@
         <v>0</v>
       </c>
       <c r="I754" t="inlineStr"/>
-      <c r="J754" t="n">
-        <v>3.066</v>
-      </c>
-      <c r="K754" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J754" t="inlineStr"/>
+      <c r="K754" t="inlineStr"/>
       <c r="L754" t="n">
         <v>1</v>
       </c>
@@ -25793,14 +25591,8 @@
         <v>0</v>
       </c>
       <c r="I755" t="inlineStr"/>
-      <c r="J755" t="n">
-        <v>3.066</v>
-      </c>
-      <c r="K755" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J755" t="inlineStr"/>
+      <c r="K755" t="inlineStr"/>
       <c r="L755" t="n">
         <v>1</v>
       </c>
@@ -25832,14 +25624,8 @@
         <v>0</v>
       </c>
       <c r="I756" t="inlineStr"/>
-      <c r="J756" t="n">
-        <v>3.066</v>
-      </c>
-      <c r="K756" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J756" t="inlineStr"/>
+      <c r="K756" t="inlineStr"/>
       <c r="L756" t="n">
         <v>1</v>
       </c>
@@ -25871,14 +25657,8 @@
         <v>0</v>
       </c>
       <c r="I757" t="inlineStr"/>
-      <c r="J757" t="n">
-        <v>3.066</v>
-      </c>
-      <c r="K757" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J757" t="inlineStr"/>
+      <c r="K757" t="inlineStr"/>
       <c r="L757" t="n">
         <v>1</v>
       </c>
@@ -25910,14 +25690,8 @@
         <v>0</v>
       </c>
       <c r="I758" t="inlineStr"/>
-      <c r="J758" t="n">
-        <v>3.066</v>
-      </c>
-      <c r="K758" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J758" t="inlineStr"/>
+      <c r="K758" t="inlineStr"/>
       <c r="L758" t="n">
         <v>1</v>
       </c>
@@ -25949,14 +25723,8 @@
         <v>0</v>
       </c>
       <c r="I759" t="inlineStr"/>
-      <c r="J759" t="n">
-        <v>3.066</v>
-      </c>
-      <c r="K759" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J759" t="inlineStr"/>
+      <c r="K759" t="inlineStr"/>
       <c r="L759" t="n">
         <v>1</v>
       </c>
@@ -25988,14 +25756,8 @@
         <v>0</v>
       </c>
       <c r="I760" t="inlineStr"/>
-      <c r="J760" t="n">
-        <v>3.066</v>
-      </c>
-      <c r="K760" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J760" t="inlineStr"/>
+      <c r="K760" t="inlineStr"/>
       <c r="L760" t="n">
         <v>1</v>
       </c>
@@ -26027,14 +25789,8 @@
         <v>0</v>
       </c>
       <c r="I761" t="inlineStr"/>
-      <c r="J761" t="n">
-        <v>3.066</v>
-      </c>
-      <c r="K761" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J761" t="inlineStr"/>
+      <c r="K761" t="inlineStr"/>
       <c r="L761" t="n">
         <v>1</v>
       </c>
@@ -26066,14 +25822,8 @@
         <v>0</v>
       </c>
       <c r="I762" t="inlineStr"/>
-      <c r="J762" t="n">
-        <v>3.066</v>
-      </c>
-      <c r="K762" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J762" t="inlineStr"/>
+      <c r="K762" t="inlineStr"/>
       <c r="L762" t="n">
         <v>1</v>
       </c>
@@ -26105,14 +25855,8 @@
         <v>0</v>
       </c>
       <c r="I763" t="inlineStr"/>
-      <c r="J763" t="n">
-        <v>3.066</v>
-      </c>
-      <c r="K763" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J763" t="inlineStr"/>
+      <c r="K763" t="inlineStr"/>
       <c r="L763" t="n">
         <v>1</v>
       </c>
@@ -26144,14 +25888,8 @@
         <v>0</v>
       </c>
       <c r="I764" t="inlineStr"/>
-      <c r="J764" t="n">
-        <v>3.066</v>
-      </c>
-      <c r="K764" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J764" t="inlineStr"/>
+      <c r="K764" t="inlineStr"/>
       <c r="L764" t="n">
         <v>1</v>
       </c>
@@ -26183,14 +25921,8 @@
         <v>0</v>
       </c>
       <c r="I765" t="inlineStr"/>
-      <c r="J765" t="n">
-        <v>3.066</v>
-      </c>
-      <c r="K765" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J765" t="inlineStr"/>
+      <c r="K765" t="inlineStr"/>
       <c r="L765" t="n">
         <v>1</v>
       </c>
@@ -26222,14 +25954,8 @@
         <v>0</v>
       </c>
       <c r="I766" t="inlineStr"/>
-      <c r="J766" t="n">
-        <v>3.066</v>
-      </c>
-      <c r="K766" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J766" t="inlineStr"/>
+      <c r="K766" t="inlineStr"/>
       <c r="L766" t="n">
         <v>1</v>
       </c>
@@ -26261,14 +25987,8 @@
         <v>0</v>
       </c>
       <c r="I767" t="inlineStr"/>
-      <c r="J767" t="n">
-        <v>3.066</v>
-      </c>
-      <c r="K767" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J767" t="inlineStr"/>
+      <c r="K767" t="inlineStr"/>
       <c r="L767" t="n">
         <v>1</v>
       </c>
@@ -26300,14 +26020,8 @@
         <v>0</v>
       </c>
       <c r="I768" t="inlineStr"/>
-      <c r="J768" t="n">
-        <v>3.066</v>
-      </c>
-      <c r="K768" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J768" t="inlineStr"/>
+      <c r="K768" t="inlineStr"/>
       <c r="L768" t="n">
         <v>1</v>
       </c>
@@ -26339,14 +26053,8 @@
         <v>0</v>
       </c>
       <c r="I769" t="inlineStr"/>
-      <c r="J769" t="n">
-        <v>3.066</v>
-      </c>
-      <c r="K769" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J769" t="inlineStr"/>
+      <c r="K769" t="inlineStr"/>
       <c r="L769" t="n">
         <v>1</v>
       </c>
@@ -26378,14 +26086,8 @@
         <v>0</v>
       </c>
       <c r="I770" t="inlineStr"/>
-      <c r="J770" t="n">
-        <v>3.066</v>
-      </c>
-      <c r="K770" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J770" t="inlineStr"/>
+      <c r="K770" t="inlineStr"/>
       <c r="L770" t="n">
         <v>1</v>
       </c>
@@ -26417,14 +26119,8 @@
         <v>0</v>
       </c>
       <c r="I771" t="inlineStr"/>
-      <c r="J771" t="n">
-        <v>3.066</v>
-      </c>
-      <c r="K771" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J771" t="inlineStr"/>
+      <c r="K771" t="inlineStr"/>
       <c r="L771" t="n">
         <v>1</v>
       </c>
@@ -26456,14 +26152,8 @@
         <v>0</v>
       </c>
       <c r="I772" t="inlineStr"/>
-      <c r="J772" t="n">
-        <v>3.066</v>
-      </c>
-      <c r="K772" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J772" t="inlineStr"/>
+      <c r="K772" t="inlineStr"/>
       <c r="L772" t="n">
         <v>1</v>
       </c>
@@ -26495,14 +26185,8 @@
         <v>0</v>
       </c>
       <c r="I773" t="inlineStr"/>
-      <c r="J773" t="n">
-        <v>3.066</v>
-      </c>
-      <c r="K773" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J773" t="inlineStr"/>
+      <c r="K773" t="inlineStr"/>
       <c r="L773" t="n">
         <v>1</v>
       </c>
@@ -26534,14 +26218,8 @@
         <v>0</v>
       </c>
       <c r="I774" t="inlineStr"/>
-      <c r="J774" t="n">
-        <v>3.066</v>
-      </c>
-      <c r="K774" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J774" t="inlineStr"/>
+      <c r="K774" t="inlineStr"/>
       <c r="L774" t="n">
         <v>1</v>
       </c>
@@ -26573,14 +26251,8 @@
         <v>0</v>
       </c>
       <c r="I775" t="inlineStr"/>
-      <c r="J775" t="n">
-        <v>3.066</v>
-      </c>
-      <c r="K775" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J775" t="inlineStr"/>
+      <c r="K775" t="inlineStr"/>
       <c r="L775" t="n">
         <v>1</v>
       </c>
@@ -26612,14 +26284,8 @@
         <v>0</v>
       </c>
       <c r="I776" t="inlineStr"/>
-      <c r="J776" t="n">
-        <v>3.066</v>
-      </c>
-      <c r="K776" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J776" t="inlineStr"/>
+      <c r="K776" t="inlineStr"/>
       <c r="L776" t="n">
         <v>1</v>
       </c>
@@ -26651,14 +26317,8 @@
         <v>0</v>
       </c>
       <c r="I777" t="inlineStr"/>
-      <c r="J777" t="n">
-        <v>3.066</v>
-      </c>
-      <c r="K777" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J777" t="inlineStr"/>
+      <c r="K777" t="inlineStr"/>
       <c r="L777" t="n">
         <v>1</v>
       </c>
@@ -26690,14 +26350,8 @@
         <v>0</v>
       </c>
       <c r="I778" t="inlineStr"/>
-      <c r="J778" t="n">
-        <v>3.066</v>
-      </c>
-      <c r="K778" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J778" t="inlineStr"/>
+      <c r="K778" t="inlineStr"/>
       <c r="L778" t="n">
         <v>1</v>
       </c>
@@ -26729,14 +26383,8 @@
         <v>0</v>
       </c>
       <c r="I779" t="inlineStr"/>
-      <c r="J779" t="n">
-        <v>3.066</v>
-      </c>
-      <c r="K779" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J779" t="inlineStr"/>
+      <c r="K779" t="inlineStr"/>
       <c r="L779" t="n">
         <v>1</v>
       </c>
@@ -26768,14 +26416,8 @@
         <v>0</v>
       </c>
       <c r="I780" t="inlineStr"/>
-      <c r="J780" t="n">
-        <v>3.066</v>
-      </c>
-      <c r="K780" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J780" t="inlineStr"/>
+      <c r="K780" t="inlineStr"/>
       <c r="L780" t="n">
         <v>1</v>
       </c>
@@ -26807,14 +26449,8 @@
         <v>0</v>
       </c>
       <c r="I781" t="inlineStr"/>
-      <c r="J781" t="n">
-        <v>3.066</v>
-      </c>
-      <c r="K781" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J781" t="inlineStr"/>
+      <c r="K781" t="inlineStr"/>
       <c r="L781" t="n">
         <v>1</v>
       </c>
@@ -26846,14 +26482,8 @@
         <v>0</v>
       </c>
       <c r="I782" t="inlineStr"/>
-      <c r="J782" t="n">
-        <v>3.066</v>
-      </c>
-      <c r="K782" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J782" t="inlineStr"/>
+      <c r="K782" t="inlineStr"/>
       <c r="L782" t="n">
         <v>1</v>
       </c>
@@ -26885,14 +26515,8 @@
         <v>0</v>
       </c>
       <c r="I783" t="inlineStr"/>
-      <c r="J783" t="n">
-        <v>3.066</v>
-      </c>
-      <c r="K783" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J783" t="inlineStr"/>
+      <c r="K783" t="inlineStr"/>
       <c r="L783" t="n">
         <v>1</v>
       </c>
@@ -26924,14 +26548,8 @@
         <v>0</v>
       </c>
       <c r="I784" t="inlineStr"/>
-      <c r="J784" t="n">
-        <v>3.066</v>
-      </c>
-      <c r="K784" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J784" t="inlineStr"/>
+      <c r="K784" t="inlineStr"/>
       <c r="L784" t="n">
         <v>1</v>
       </c>
@@ -26963,14 +26581,8 @@
         <v>0</v>
       </c>
       <c r="I785" t="inlineStr"/>
-      <c r="J785" t="n">
-        <v>3.066</v>
-      </c>
-      <c r="K785" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J785" t="inlineStr"/>
+      <c r="K785" t="inlineStr"/>
       <c r="L785" t="n">
         <v>1</v>
       </c>
@@ -27002,14 +26614,8 @@
         <v>0</v>
       </c>
       <c r="I786" t="inlineStr"/>
-      <c r="J786" t="n">
-        <v>3.066</v>
-      </c>
-      <c r="K786" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J786" t="inlineStr"/>
+      <c r="K786" t="inlineStr"/>
       <c r="L786" t="n">
         <v>1</v>
       </c>
@@ -27041,14 +26647,8 @@
         <v>0</v>
       </c>
       <c r="I787" t="inlineStr"/>
-      <c r="J787" t="n">
-        <v>3.066</v>
-      </c>
-      <c r="K787" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J787" t="inlineStr"/>
+      <c r="K787" t="inlineStr"/>
       <c r="L787" t="n">
         <v>1</v>
       </c>
@@ -27080,14 +26680,8 @@
         <v>0</v>
       </c>
       <c r="I788" t="inlineStr"/>
-      <c r="J788" t="n">
-        <v>3.066</v>
-      </c>
-      <c r="K788" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J788" t="inlineStr"/>
+      <c r="K788" t="inlineStr"/>
       <c r="L788" t="n">
         <v>1</v>
       </c>
@@ -27119,14 +26713,8 @@
         <v>0</v>
       </c>
       <c r="I789" t="inlineStr"/>
-      <c r="J789" t="n">
-        <v>3.066</v>
-      </c>
-      <c r="K789" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J789" t="inlineStr"/>
+      <c r="K789" t="inlineStr"/>
       <c r="L789" t="n">
         <v>1</v>
       </c>
@@ -27158,14 +26746,8 @@
         <v>0</v>
       </c>
       <c r="I790" t="inlineStr"/>
-      <c r="J790" t="n">
-        <v>3.066</v>
-      </c>
-      <c r="K790" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J790" t="inlineStr"/>
+      <c r="K790" t="inlineStr"/>
       <c r="L790" t="n">
         <v>1</v>
       </c>
@@ -27197,14 +26779,8 @@
         <v>0</v>
       </c>
       <c r="I791" t="inlineStr"/>
-      <c r="J791" t="n">
-        <v>3.066</v>
-      </c>
-      <c r="K791" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J791" t="inlineStr"/>
+      <c r="K791" t="inlineStr"/>
       <c r="L791" t="n">
         <v>1</v>
       </c>
@@ -27236,14 +26812,8 @@
         <v>0</v>
       </c>
       <c r="I792" t="inlineStr"/>
-      <c r="J792" t="n">
-        <v>3.066</v>
-      </c>
-      <c r="K792" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J792" t="inlineStr"/>
+      <c r="K792" t="inlineStr"/>
       <c r="L792" t="n">
         <v>1</v>
       </c>
@@ -27275,14 +26845,8 @@
         <v>0</v>
       </c>
       <c r="I793" t="inlineStr"/>
-      <c r="J793" t="n">
-        <v>3.066</v>
-      </c>
-      <c r="K793" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J793" t="inlineStr"/>
+      <c r="K793" t="inlineStr"/>
       <c r="L793" t="n">
         <v>1</v>
       </c>
@@ -27314,14 +26878,8 @@
         <v>0</v>
       </c>
       <c r="I794" t="inlineStr"/>
-      <c r="J794" t="n">
-        <v>3.066</v>
-      </c>
-      <c r="K794" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J794" t="inlineStr"/>
+      <c r="K794" t="inlineStr"/>
       <c r="L794" t="n">
         <v>1</v>
       </c>
@@ -27353,14 +26911,8 @@
         <v>0</v>
       </c>
       <c r="I795" t="inlineStr"/>
-      <c r="J795" t="n">
-        <v>3.066</v>
-      </c>
-      <c r="K795" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J795" t="inlineStr"/>
+      <c r="K795" t="inlineStr"/>
       <c r="L795" t="n">
         <v>1</v>
       </c>
@@ -27392,14 +26944,8 @@
         <v>0</v>
       </c>
       <c r="I796" t="inlineStr"/>
-      <c r="J796" t="n">
-        <v>3.066</v>
-      </c>
-      <c r="K796" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J796" t="inlineStr"/>
+      <c r="K796" t="inlineStr"/>
       <c r="L796" t="n">
         <v>1</v>
       </c>
@@ -27431,14 +26977,8 @@
         <v>0</v>
       </c>
       <c r="I797" t="inlineStr"/>
-      <c r="J797" t="n">
-        <v>3.066</v>
-      </c>
-      <c r="K797" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J797" t="inlineStr"/>
+      <c r="K797" t="inlineStr"/>
       <c r="L797" t="n">
         <v>1</v>
       </c>
@@ -27470,14 +27010,8 @@
         <v>0</v>
       </c>
       <c r="I798" t="inlineStr"/>
-      <c r="J798" t="n">
-        <v>3.066</v>
-      </c>
-      <c r="K798" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J798" t="inlineStr"/>
+      <c r="K798" t="inlineStr"/>
       <c r="L798" t="n">
         <v>1</v>
       </c>
@@ -27509,14 +27043,8 @@
         <v>0</v>
       </c>
       <c r="I799" t="inlineStr"/>
-      <c r="J799" t="n">
-        <v>3.066</v>
-      </c>
-      <c r="K799" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J799" t="inlineStr"/>
+      <c r="K799" t="inlineStr"/>
       <c r="L799" t="n">
         <v>1</v>
       </c>
@@ -27548,20 +27076,14 @@
         <v>0</v>
       </c>
       <c r="I800" t="inlineStr"/>
-      <c r="J800" t="n">
-        <v>3.066</v>
-      </c>
-      <c r="K800" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J800" t="inlineStr"/>
+      <c r="K800" t="inlineStr"/>
       <c r="L800" t="n">
         <v>1</v>
       </c>
       <c r="M800" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-25 BackTest CON.xlsx
+++ b/BackTest/2020-01-25 BackTest CON.xlsx
@@ -8404,7 +8404,7 @@
         <v>-2886580.620399996</v>
       </c>
       <c r="H243" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -9361,7 +9361,7 @@
         <v>-3063384.565999997</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -10186,7 +10186,7 @@
         <v>-3523755.626511318</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -10285,7 +10285,7 @@
         <v>-3552791.296511318</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -10318,7 +10318,7 @@
         <v>-3552791.296511318</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -10351,7 +10351,7 @@
         <v>-3552791.296511318</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -10846,7 +10846,7 @@
         <v>-3447662.146511318</v>
       </c>
       <c r="H317" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
@@ -11275,7 +11275,7 @@
         <v>-3550030.619711318</v>
       </c>
       <c r="H330" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
@@ -11308,7 +11308,7 @@
         <v>-3550030.619711318</v>
       </c>
       <c r="H331" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
@@ -11341,7 +11341,7 @@
         <v>-3550030.619711318</v>
       </c>
       <c r="H332" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
@@ -11407,7 +11407,7 @@
         <v>-3551230.619711318</v>
       </c>
       <c r="H334" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
@@ -11440,7 +11440,7 @@
         <v>-3552965.583911318</v>
       </c>
       <c r="H335" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
@@ -11473,7 +11473,7 @@
         <v>-3552965.583911318</v>
       </c>
       <c r="H336" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -11506,7 +11506,7 @@
         <v>-3552965.583911318</v>
       </c>
       <c r="H337" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
@@ -11539,7 +11539,7 @@
         <v>-3552965.583911318</v>
       </c>
       <c r="H338" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
@@ -11572,7 +11572,7 @@
         <v>-3552965.583911318</v>
       </c>
       <c r="H339" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
@@ -11605,7 +11605,7 @@
         <v>-3552965.583911318</v>
       </c>
       <c r="H340" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -11638,7 +11638,7 @@
         <v>-3552965.583911318</v>
       </c>
       <c r="H341" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
@@ -11671,7 +11671,7 @@
         <v>-3552965.583911318</v>
       </c>
       <c r="H342" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
@@ -11704,7 +11704,7 @@
         <v>-3553165.583911318</v>
       </c>
       <c r="H343" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
@@ -11737,7 +11737,7 @@
         <v>-3476288.033411318</v>
       </c>
       <c r="H344" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
@@ -11770,7 +11770,7 @@
         <v>-3650502.053411318</v>
       </c>
       <c r="H345" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
@@ -11803,7 +11803,7 @@
         <v>-3650502.053411318</v>
       </c>
       <c r="H346" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
@@ -11836,7 +11836,7 @@
         <v>-3554727.128811318</v>
       </c>
       <c r="H347" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
@@ -11869,7 +11869,7 @@
         <v>-3554727.128811318</v>
       </c>
       <c r="H348" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
@@ -11902,7 +11902,7 @@
         <v>-3554727.128811318</v>
       </c>
       <c r="H349" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
@@ -11935,7 +11935,7 @@
         <v>-3554927.128811318</v>
       </c>
       <c r="H350" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
@@ -11968,7 +11968,7 @@
         <v>-3610523.174211318</v>
       </c>
       <c r="H351" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
@@ -12001,7 +12001,7 @@
         <v>-3638589.407211318</v>
       </c>
       <c r="H352" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
@@ -12034,7 +12034,7 @@
         <v>-3547477.477211318</v>
       </c>
       <c r="H353" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
@@ -12067,7 +12067,7 @@
         <v>-3548521.829411318</v>
       </c>
       <c r="H354" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
@@ -12100,7 +12100,7 @@
         <v>-3456408.669411318</v>
       </c>
       <c r="H355" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
@@ -12133,7 +12133,7 @@
         <v>-3543671.327211318</v>
       </c>
       <c r="H356" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
@@ -12166,7 +12166,7 @@
         <v>-3634977.107211318</v>
       </c>
       <c r="H357" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
@@ -12199,7 +12199,7 @@
         <v>-3738303.797211318</v>
       </c>
       <c r="H358" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
@@ -12397,7 +12397,7 @@
         <v>-3594362.281967502</v>
       </c>
       <c r="H364" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
@@ -12430,7 +12430,7 @@
         <v>-3594362.281967502</v>
       </c>
       <c r="H365" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
@@ -12463,7 +12463,7 @@
         <v>-3594062.281967502</v>
       </c>
       <c r="H366" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
@@ -12496,7 +12496,7 @@
         <v>-3614503.021267502</v>
       </c>
       <c r="H367" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
@@ -12529,7 +12529,7 @@
         <v>-3614503.021267502</v>
       </c>
       <c r="H368" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
@@ -12562,7 +12562,7 @@
         <v>-3614503.021267502</v>
       </c>
       <c r="H369" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
@@ -12595,7 +12595,7 @@
         <v>-3614503.021267502</v>
       </c>
       <c r="H370" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
@@ -12628,7 +12628,7 @@
         <v>-3614503.021267502</v>
       </c>
       <c r="H371" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
@@ -12661,7 +12661,7 @@
         <v>-3614503.021267502</v>
       </c>
       <c r="H372" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
@@ -12694,7 +12694,7 @@
         <v>-3614503.021267502</v>
       </c>
       <c r="H373" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
@@ -12727,7 +12727,7 @@
         <v>-3614503.021267502</v>
       </c>
       <c r="H374" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
@@ -12760,7 +12760,7 @@
         <v>-3614503.021267502</v>
       </c>
       <c r="H375" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
@@ -12793,7 +12793,7 @@
         <v>-3614503.021267502</v>
       </c>
       <c r="H376" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
@@ -12826,7 +12826,7 @@
         <v>-3614503.021267502</v>
       </c>
       <c r="H377" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
@@ -12859,7 +12859,7 @@
         <v>-3614503.021267502</v>
       </c>
       <c r="H378" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
@@ -12892,7 +12892,7 @@
         <v>-3614503.021267502</v>
       </c>
       <c r="H379" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
@@ -12925,7 +12925,7 @@
         <v>-3614503.021267502</v>
       </c>
       <c r="H380" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
@@ -12958,7 +12958,7 @@
         <v>-3614503.021267502</v>
       </c>
       <c r="H381" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
@@ -12991,7 +12991,7 @@
         <v>-3614503.021267502</v>
       </c>
       <c r="H382" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
@@ -13024,7 +13024,7 @@
         <v>-3615019.260667502</v>
       </c>
       <c r="H383" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
@@ -13057,7 +13057,7 @@
         <v>-3644054.930667502</v>
       </c>
       <c r="H384" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
@@ -22660,10 +22660,14 @@
         <v>-6320685.334967494</v>
       </c>
       <c r="H675" t="n">
-        <v>0</v>
-      </c>
-      <c r="I675" t="inlineStr"/>
-      <c r="J675" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I675" t="n">
+        <v>3.028</v>
+      </c>
+      <c r="J675" t="n">
+        <v>3.028</v>
+      </c>
       <c r="K675" t="inlineStr"/>
       <c r="L675" t="n">
         <v>1</v>
@@ -22693,11 +22697,19 @@
         <v>-6076724.796467494</v>
       </c>
       <c r="H676" t="n">
-        <v>0</v>
-      </c>
-      <c r="I676" t="inlineStr"/>
-      <c r="J676" t="inlineStr"/>
-      <c r="K676" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I676" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="J676" t="n">
+        <v>3.028</v>
+      </c>
+      <c r="K676" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L676" t="n">
         <v>1</v>
       </c>
@@ -22726,11 +22738,19 @@
         <v>-6013647.306467494</v>
       </c>
       <c r="H677" t="n">
-        <v>0</v>
-      </c>
-      <c r="I677" t="inlineStr"/>
-      <c r="J677" t="inlineStr"/>
-      <c r="K677" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I677" t="n">
+        <v>3.053</v>
+      </c>
+      <c r="J677" t="n">
+        <v>3.028</v>
+      </c>
+      <c r="K677" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L677" t="n">
         <v>1</v>
       </c>
@@ -22759,10 +22779,14 @@
         <v>-5918530.456467494</v>
       </c>
       <c r="H678" t="n">
-        <v>0</v>
-      </c>
-      <c r="I678" t="inlineStr"/>
-      <c r="J678" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I678" t="n">
+        <v>3.057</v>
+      </c>
+      <c r="J678" t="n">
+        <v>3.057</v>
+      </c>
       <c r="K678" t="inlineStr"/>
       <c r="L678" t="n">
         <v>1</v>
@@ -22798,9 +22822,13 @@
         <v>3.069</v>
       </c>
       <c r="J679" t="n">
-        <v>3.069</v>
-      </c>
-      <c r="K679" t="inlineStr"/>
+        <v>3.057</v>
+      </c>
+      <c r="K679" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L679" t="n">
         <v>1</v>
       </c>
@@ -22829,11 +22857,13 @@
         <v>-5872473.876467494</v>
       </c>
       <c r="H680" t="n">
-        <v>0</v>
-      </c>
-      <c r="I680" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I680" t="n">
+        <v>3.055</v>
+      </c>
       <c r="J680" t="n">
-        <v>3.069</v>
+        <v>3.057</v>
       </c>
       <c r="K680" t="inlineStr">
         <is>
@@ -22874,50 +22904,50 @@
         <v>3.066</v>
       </c>
       <c r="J681" t="n">
-        <v>3.069</v>
-      </c>
-      <c r="K681" t="inlineStr">
+        <v>3.066</v>
+      </c>
+      <c r="K681" t="inlineStr"/>
+      <c r="L681" t="n">
+        <v>1</v>
+      </c>
+      <c r="M681" t="inlineStr"/>
+    </row>
+    <row r="682">
+      <c r="A682" s="1" t="n">
+        <v>680</v>
+      </c>
+      <c r="B682" t="n">
+        <v>3.057</v>
+      </c>
+      <c r="C682" t="n">
+        <v>3.057</v>
+      </c>
+      <c r="D682" t="n">
+        <v>3.057</v>
+      </c>
+      <c r="E682" t="n">
+        <v>3.057</v>
+      </c>
+      <c r="F682" t="n">
+        <v>2007.9254</v>
+      </c>
+      <c r="G682" t="n">
+        <v>-5924543.301867494</v>
+      </c>
+      <c r="H682" t="n">
+        <v>1</v>
+      </c>
+      <c r="I682" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="J682" t="n">
+        <v>3.066</v>
+      </c>
+      <c r="K682" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L681" t="n">
-        <v>1</v>
-      </c>
-      <c r="M681" t="inlineStr"/>
-    </row>
-    <row r="682">
-      <c r="A682" s="1" t="n">
-        <v>680</v>
-      </c>
-      <c r="B682" t="n">
-        <v>3.057</v>
-      </c>
-      <c r="C682" t="n">
-        <v>3.057</v>
-      </c>
-      <c r="D682" t="n">
-        <v>3.057</v>
-      </c>
-      <c r="E682" t="n">
-        <v>3.057</v>
-      </c>
-      <c r="F682" t="n">
-        <v>2007.9254</v>
-      </c>
-      <c r="G682" t="n">
-        <v>-5924543.301867494</v>
-      </c>
-      <c r="H682" t="n">
-        <v>1</v>
-      </c>
-      <c r="I682" t="n">
-        <v>3.06</v>
-      </c>
-      <c r="J682" t="n">
-        <v>3.06</v>
-      </c>
-      <c r="K682" t="inlineStr"/>
       <c r="L682" t="n">
         <v>1</v>
       </c>
@@ -22952,7 +22982,7 @@
         <v>3.057</v>
       </c>
       <c r="J683" t="n">
-        <v>3.06</v>
+        <v>3.066</v>
       </c>
       <c r="K683" t="inlineStr">
         <is>
@@ -22993,7 +23023,7 @@
         <v>3.064</v>
       </c>
       <c r="J684" t="n">
-        <v>3.06</v>
+        <v>3.066</v>
       </c>
       <c r="K684" t="inlineStr">
         <is>
@@ -23028,11 +23058,13 @@
         <v>-5509080.108367494</v>
       </c>
       <c r="H685" t="n">
-        <v>0</v>
-      </c>
-      <c r="I685" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I685" t="n">
+        <v>3.07</v>
+      </c>
       <c r="J685" t="n">
-        <v>3.06</v>
+        <v>3.066</v>
       </c>
       <c r="K685" t="inlineStr">
         <is>
@@ -23071,7 +23103,7 @@
       </c>
       <c r="I686" t="inlineStr"/>
       <c r="J686" t="n">
-        <v>3.06</v>
+        <v>3.066</v>
       </c>
       <c r="K686" t="inlineStr">
         <is>
@@ -23106,13 +23138,11 @@
         <v>-5483048.128367494</v>
       </c>
       <c r="H687" t="n">
-        <v>1</v>
-      </c>
-      <c r="I687" t="n">
-        <v>3.076</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I687" t="inlineStr"/>
       <c r="J687" t="n">
-        <v>3.06</v>
+        <v>3.066</v>
       </c>
       <c r="K687" t="inlineStr">
         <is>
@@ -23147,13 +23177,11 @@
         <v>-5556137.918367494</v>
       </c>
       <c r="H688" t="n">
-        <v>1</v>
-      </c>
-      <c r="I688" t="n">
-        <v>3.082</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I688" t="inlineStr"/>
       <c r="J688" t="n">
-        <v>3.06</v>
+        <v>3.066</v>
       </c>
       <c r="K688" t="inlineStr">
         <is>
@@ -23188,13 +23216,11 @@
         <v>-5533109.628367494</v>
       </c>
       <c r="H689" t="n">
-        <v>1</v>
-      </c>
-      <c r="I689" t="n">
-        <v>3.072</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I689" t="inlineStr"/>
       <c r="J689" t="n">
-        <v>3.06</v>
+        <v>3.066</v>
       </c>
       <c r="K689" t="inlineStr">
         <is>
@@ -23229,13 +23255,11 @@
         <v>-5474037.058367494</v>
       </c>
       <c r="H690" t="n">
-        <v>1</v>
-      </c>
-      <c r="I690" t="n">
-        <v>3.078</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I690" t="inlineStr"/>
       <c r="J690" t="n">
-        <v>3.06</v>
+        <v>3.066</v>
       </c>
       <c r="K690" t="inlineStr">
         <is>
@@ -23270,13 +23294,11 @@
         <v>-5579166.208367494</v>
       </c>
       <c r="H691" t="n">
-        <v>1</v>
-      </c>
-      <c r="I691" t="n">
-        <v>3.083</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I691" t="inlineStr"/>
       <c r="J691" t="n">
-        <v>3.06</v>
+        <v>3.066</v>
       </c>
       <c r="K691" t="inlineStr">
         <is>
@@ -23315,7 +23337,7 @@
       </c>
       <c r="I692" t="inlineStr"/>
       <c r="J692" t="n">
-        <v>3.06</v>
+        <v>3.066</v>
       </c>
       <c r="K692" t="inlineStr">
         <is>
@@ -23350,13 +23372,11 @@
         <v>-5801938.265367494</v>
       </c>
       <c r="H693" t="n">
-        <v>1</v>
-      </c>
-      <c r="I693" t="n">
-        <v>3.074</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I693" t="inlineStr"/>
       <c r="J693" t="n">
-        <v>3.06</v>
+        <v>3.066</v>
       </c>
       <c r="K693" t="inlineStr">
         <is>
@@ -23391,13 +23411,11 @@
         <v>-5780353.873967494</v>
       </c>
       <c r="H694" t="n">
-        <v>1</v>
-      </c>
-      <c r="I694" t="n">
-        <v>3.073</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I694" t="inlineStr"/>
       <c r="J694" t="n">
-        <v>3.06</v>
+        <v>3.066</v>
       </c>
       <c r="K694" t="inlineStr">
         <is>
@@ -23432,13 +23450,11 @@
         <v>-5745310.823967494</v>
       </c>
       <c r="H695" t="n">
-        <v>1</v>
-      </c>
-      <c r="I695" t="n">
-        <v>3.084</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I695" t="inlineStr"/>
       <c r="J695" t="n">
-        <v>3.06</v>
+        <v>3.066</v>
       </c>
       <c r="K695" t="inlineStr">
         <is>
@@ -23477,7 +23493,7 @@
       </c>
       <c r="I696" t="inlineStr"/>
       <c r="J696" t="n">
-        <v>3.06</v>
+        <v>3.066</v>
       </c>
       <c r="K696" t="inlineStr">
         <is>
@@ -23516,7 +23532,7 @@
       </c>
       <c r="I697" t="inlineStr"/>
       <c r="J697" t="n">
-        <v>3.06</v>
+        <v>3.066</v>
       </c>
       <c r="K697" t="inlineStr">
         <is>
@@ -23555,7 +23571,7 @@
       </c>
       <c r="I698" t="inlineStr"/>
       <c r="J698" t="n">
-        <v>3.06</v>
+        <v>3.066</v>
       </c>
       <c r="K698" t="inlineStr">
         <is>
@@ -23594,7 +23610,7 @@
       </c>
       <c r="I699" t="inlineStr"/>
       <c r="J699" t="n">
-        <v>3.06</v>
+        <v>3.066</v>
       </c>
       <c r="K699" t="inlineStr">
         <is>
@@ -23633,7 +23649,7 @@
       </c>
       <c r="I700" t="inlineStr"/>
       <c r="J700" t="n">
-        <v>3.06</v>
+        <v>3.066</v>
       </c>
       <c r="K700" t="inlineStr">
         <is>
@@ -23672,7 +23688,7 @@
       </c>
       <c r="I701" t="inlineStr"/>
       <c r="J701" t="n">
-        <v>3.06</v>
+        <v>3.066</v>
       </c>
       <c r="K701" t="inlineStr">
         <is>
@@ -23711,7 +23727,7 @@
       </c>
       <c r="I702" t="inlineStr"/>
       <c r="J702" t="n">
-        <v>3.06</v>
+        <v>3.066</v>
       </c>
       <c r="K702" t="inlineStr">
         <is>
@@ -23750,7 +23766,7 @@
       </c>
       <c r="I703" t="inlineStr"/>
       <c r="J703" t="n">
-        <v>3.06</v>
+        <v>3.066</v>
       </c>
       <c r="K703" t="inlineStr">
         <is>
@@ -23789,7 +23805,7 @@
       </c>
       <c r="I704" t="inlineStr"/>
       <c r="J704" t="n">
-        <v>3.06</v>
+        <v>3.066</v>
       </c>
       <c r="K704" t="inlineStr">
         <is>
@@ -23828,7 +23844,7 @@
       </c>
       <c r="I705" t="inlineStr"/>
       <c r="J705" t="n">
-        <v>3.06</v>
+        <v>3.066</v>
       </c>
       <c r="K705" t="inlineStr">
         <is>
@@ -23867,7 +23883,7 @@
       </c>
       <c r="I706" t="inlineStr"/>
       <c r="J706" t="n">
-        <v>3.06</v>
+        <v>3.066</v>
       </c>
       <c r="K706" t="inlineStr">
         <is>
@@ -23906,7 +23922,7 @@
       </c>
       <c r="I707" t="inlineStr"/>
       <c r="J707" t="n">
-        <v>3.06</v>
+        <v>3.066</v>
       </c>
       <c r="K707" t="inlineStr">
         <is>
@@ -23945,7 +23961,7 @@
       </c>
       <c r="I708" t="inlineStr"/>
       <c r="J708" t="n">
-        <v>3.06</v>
+        <v>3.066</v>
       </c>
       <c r="K708" t="inlineStr">
         <is>
@@ -23984,7 +24000,7 @@
       </c>
       <c r="I709" t="inlineStr"/>
       <c r="J709" t="n">
-        <v>3.06</v>
+        <v>3.066</v>
       </c>
       <c r="K709" t="inlineStr">
         <is>
@@ -24023,7 +24039,7 @@
       </c>
       <c r="I710" t="inlineStr"/>
       <c r="J710" t="n">
-        <v>3.06</v>
+        <v>3.066</v>
       </c>
       <c r="K710" t="inlineStr">
         <is>
@@ -24062,7 +24078,7 @@
       </c>
       <c r="I711" t="inlineStr"/>
       <c r="J711" t="n">
-        <v>3.06</v>
+        <v>3.066</v>
       </c>
       <c r="K711" t="inlineStr">
         <is>
@@ -24101,7 +24117,7 @@
       </c>
       <c r="I712" t="inlineStr"/>
       <c r="J712" t="n">
-        <v>3.06</v>
+        <v>3.066</v>
       </c>
       <c r="K712" t="inlineStr">
         <is>
@@ -24140,7 +24156,7 @@
       </c>
       <c r="I713" t="inlineStr"/>
       <c r="J713" t="n">
-        <v>3.06</v>
+        <v>3.066</v>
       </c>
       <c r="K713" t="inlineStr">
         <is>
@@ -24179,7 +24195,7 @@
       </c>
       <c r="I714" t="inlineStr"/>
       <c r="J714" t="n">
-        <v>3.06</v>
+        <v>3.066</v>
       </c>
       <c r="K714" t="inlineStr">
         <is>
@@ -24218,7 +24234,7 @@
       </c>
       <c r="I715" t="inlineStr"/>
       <c r="J715" t="n">
-        <v>3.06</v>
+        <v>3.066</v>
       </c>
       <c r="K715" t="inlineStr">
         <is>
@@ -24257,7 +24273,7 @@
       </c>
       <c r="I716" t="inlineStr"/>
       <c r="J716" t="n">
-        <v>3.06</v>
+        <v>3.066</v>
       </c>
       <c r="K716" t="inlineStr">
         <is>
@@ -24296,7 +24312,7 @@
       </c>
       <c r="I717" t="inlineStr"/>
       <c r="J717" t="n">
-        <v>3.06</v>
+        <v>3.066</v>
       </c>
       <c r="K717" t="inlineStr">
         <is>
@@ -24335,7 +24351,7 @@
       </c>
       <c r="I718" t="inlineStr"/>
       <c r="J718" t="n">
-        <v>3.06</v>
+        <v>3.066</v>
       </c>
       <c r="K718" t="inlineStr">
         <is>
@@ -24374,7 +24390,7 @@
       </c>
       <c r="I719" t="inlineStr"/>
       <c r="J719" t="n">
-        <v>3.06</v>
+        <v>3.066</v>
       </c>
       <c r="K719" t="inlineStr">
         <is>
@@ -24413,7 +24429,7 @@
       </c>
       <c r="I720" t="inlineStr"/>
       <c r="J720" t="n">
-        <v>3.06</v>
+        <v>3.066</v>
       </c>
       <c r="K720" t="inlineStr">
         <is>
@@ -24452,7 +24468,7 @@
       </c>
       <c r="I721" t="inlineStr"/>
       <c r="J721" t="n">
-        <v>3.06</v>
+        <v>3.066</v>
       </c>
       <c r="K721" t="inlineStr">
         <is>
@@ -24491,7 +24507,7 @@
       </c>
       <c r="I722" t="inlineStr"/>
       <c r="J722" t="n">
-        <v>3.06</v>
+        <v>3.066</v>
       </c>
       <c r="K722" t="inlineStr">
         <is>
@@ -24526,19 +24542,19 @@
         <v>-5631138.344367493</v>
       </c>
       <c r="H723" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I723" t="inlineStr"/>
       <c r="J723" t="n">
-        <v>3.06</v>
+        <v>3.066</v>
       </c>
       <c r="K723" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L723" t="n">
-        <v>1.014281045751634</v>
+        <v>1</v>
       </c>
       <c r="M723" t="inlineStr"/>
     </row>
@@ -24565,11 +24581,17 @@
         <v>-5631138.344367493</v>
       </c>
       <c r="H724" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I724" t="inlineStr"/>
-      <c r="J724" t="inlineStr"/>
-      <c r="K724" t="inlineStr"/>
+      <c r="J724" t="n">
+        <v>3.066</v>
+      </c>
+      <c r="K724" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L724" t="n">
         <v>1</v>
       </c>
@@ -24598,11 +24620,17 @@
         <v>-5735266.264367493</v>
       </c>
       <c r="H725" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I725" t="inlineStr"/>
-      <c r="J725" t="inlineStr"/>
-      <c r="K725" t="inlineStr"/>
+      <c r="J725" t="n">
+        <v>3.066</v>
+      </c>
+      <c r="K725" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L725" t="n">
         <v>1</v>
       </c>
@@ -24634,8 +24662,14 @@
         <v>0</v>
       </c>
       <c r="I726" t="inlineStr"/>
-      <c r="J726" t="inlineStr"/>
-      <c r="K726" t="inlineStr"/>
+      <c r="J726" t="n">
+        <v>3.066</v>
+      </c>
+      <c r="K726" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L726" t="n">
         <v>1</v>
       </c>
@@ -24664,11 +24698,19 @@
         <v>-5757229.245367493</v>
       </c>
       <c r="H727" t="n">
-        <v>0</v>
-      </c>
-      <c r="I727" t="inlineStr"/>
-      <c r="J727" t="inlineStr"/>
-      <c r="K727" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I727" t="n">
+        <v>3.104</v>
+      </c>
+      <c r="J727" t="n">
+        <v>3.066</v>
+      </c>
+      <c r="K727" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L727" t="n">
         <v>1</v>
       </c>
@@ -24697,11 +24739,19 @@
         <v>-5709170.205367493</v>
       </c>
       <c r="H728" t="n">
-        <v>0</v>
-      </c>
-      <c r="I728" t="inlineStr"/>
-      <c r="J728" t="inlineStr"/>
-      <c r="K728" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I728" t="n">
+        <v>3.095</v>
+      </c>
+      <c r="J728" t="n">
+        <v>3.066</v>
+      </c>
+      <c r="K728" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L728" t="n">
         <v>1</v>
       </c>
@@ -24733,8 +24783,14 @@
         <v>0</v>
       </c>
       <c r="I729" t="inlineStr"/>
-      <c r="J729" t="inlineStr"/>
-      <c r="K729" t="inlineStr"/>
+      <c r="J729" t="n">
+        <v>3.066</v>
+      </c>
+      <c r="K729" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L729" t="n">
         <v>1</v>
       </c>
@@ -24766,8 +24822,14 @@
         <v>0</v>
       </c>
       <c r="I730" t="inlineStr"/>
-      <c r="J730" t="inlineStr"/>
-      <c r="K730" t="inlineStr"/>
+      <c r="J730" t="n">
+        <v>3.066</v>
+      </c>
+      <c r="K730" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L730" t="n">
         <v>1</v>
       </c>
@@ -24799,8 +24861,14 @@
         <v>0</v>
       </c>
       <c r="I731" t="inlineStr"/>
-      <c r="J731" t="inlineStr"/>
-      <c r="K731" t="inlineStr"/>
+      <c r="J731" t="n">
+        <v>3.066</v>
+      </c>
+      <c r="K731" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L731" t="n">
         <v>1</v>
       </c>
@@ -24832,8 +24900,14 @@
         <v>0</v>
       </c>
       <c r="I732" t="inlineStr"/>
-      <c r="J732" t="inlineStr"/>
-      <c r="K732" t="inlineStr"/>
+      <c r="J732" t="n">
+        <v>3.066</v>
+      </c>
+      <c r="K732" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L732" t="n">
         <v>1</v>
       </c>
@@ -24865,8 +24939,14 @@
         <v>0</v>
       </c>
       <c r="I733" t="inlineStr"/>
-      <c r="J733" t="inlineStr"/>
-      <c r="K733" t="inlineStr"/>
+      <c r="J733" t="n">
+        <v>3.066</v>
+      </c>
+      <c r="K733" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L733" t="n">
         <v>1</v>
       </c>
@@ -24898,8 +24978,14 @@
         <v>0</v>
       </c>
       <c r="I734" t="inlineStr"/>
-      <c r="J734" t="inlineStr"/>
-      <c r="K734" t="inlineStr"/>
+      <c r="J734" t="n">
+        <v>3.066</v>
+      </c>
+      <c r="K734" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L734" t="n">
         <v>1</v>
       </c>
@@ -24931,8 +25017,14 @@
         <v>0</v>
       </c>
       <c r="I735" t="inlineStr"/>
-      <c r="J735" t="inlineStr"/>
-      <c r="K735" t="inlineStr"/>
+      <c r="J735" t="n">
+        <v>3.066</v>
+      </c>
+      <c r="K735" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L735" t="n">
         <v>1</v>
       </c>
@@ -24964,8 +25056,14 @@
         <v>0</v>
       </c>
       <c r="I736" t="inlineStr"/>
-      <c r="J736" t="inlineStr"/>
-      <c r="K736" t="inlineStr"/>
+      <c r="J736" t="n">
+        <v>3.066</v>
+      </c>
+      <c r="K736" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L736" t="n">
         <v>1</v>
       </c>
@@ -24997,8 +25095,14 @@
         <v>0</v>
       </c>
       <c r="I737" t="inlineStr"/>
-      <c r="J737" t="inlineStr"/>
-      <c r="K737" t="inlineStr"/>
+      <c r="J737" t="n">
+        <v>3.066</v>
+      </c>
+      <c r="K737" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L737" t="n">
         <v>1</v>
       </c>
@@ -25030,8 +25134,14 @@
         <v>0</v>
       </c>
       <c r="I738" t="inlineStr"/>
-      <c r="J738" t="inlineStr"/>
-      <c r="K738" t="inlineStr"/>
+      <c r="J738" t="n">
+        <v>3.066</v>
+      </c>
+      <c r="K738" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L738" t="n">
         <v>1</v>
       </c>
@@ -25063,8 +25173,14 @@
         <v>0</v>
       </c>
       <c r="I739" t="inlineStr"/>
-      <c r="J739" t="inlineStr"/>
-      <c r="K739" t="inlineStr"/>
+      <c r="J739" t="n">
+        <v>3.066</v>
+      </c>
+      <c r="K739" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L739" t="n">
         <v>1</v>
       </c>
@@ -25096,8 +25212,14 @@
         <v>0</v>
       </c>
       <c r="I740" t="inlineStr"/>
-      <c r="J740" t="inlineStr"/>
-      <c r="K740" t="inlineStr"/>
+      <c r="J740" t="n">
+        <v>3.066</v>
+      </c>
+      <c r="K740" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L740" t="n">
         <v>1</v>
       </c>
@@ -25129,8 +25251,14 @@
         <v>0</v>
       </c>
       <c r="I741" t="inlineStr"/>
-      <c r="J741" t="inlineStr"/>
-      <c r="K741" t="inlineStr"/>
+      <c r="J741" t="n">
+        <v>3.066</v>
+      </c>
+      <c r="K741" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L741" t="n">
         <v>1</v>
       </c>
@@ -25162,8 +25290,14 @@
         <v>0</v>
       </c>
       <c r="I742" t="inlineStr"/>
-      <c r="J742" t="inlineStr"/>
-      <c r="K742" t="inlineStr"/>
+      <c r="J742" t="n">
+        <v>3.066</v>
+      </c>
+      <c r="K742" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L742" t="n">
         <v>1</v>
       </c>
@@ -25195,8 +25329,14 @@
         <v>0</v>
       </c>
       <c r="I743" t="inlineStr"/>
-      <c r="J743" t="inlineStr"/>
-      <c r="K743" t="inlineStr"/>
+      <c r="J743" t="n">
+        <v>3.066</v>
+      </c>
+      <c r="K743" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L743" t="n">
         <v>1</v>
       </c>
@@ -25228,8 +25368,14 @@
         <v>0</v>
       </c>
       <c r="I744" t="inlineStr"/>
-      <c r="J744" t="inlineStr"/>
-      <c r="K744" t="inlineStr"/>
+      <c r="J744" t="n">
+        <v>3.066</v>
+      </c>
+      <c r="K744" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L744" t="n">
         <v>1</v>
       </c>
@@ -25261,8 +25407,14 @@
         <v>0</v>
       </c>
       <c r="I745" t="inlineStr"/>
-      <c r="J745" t="inlineStr"/>
-      <c r="K745" t="inlineStr"/>
+      <c r="J745" t="n">
+        <v>3.066</v>
+      </c>
+      <c r="K745" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L745" t="n">
         <v>1</v>
       </c>
@@ -25294,8 +25446,14 @@
         <v>0</v>
       </c>
       <c r="I746" t="inlineStr"/>
-      <c r="J746" t="inlineStr"/>
-      <c r="K746" t="inlineStr"/>
+      <c r="J746" t="n">
+        <v>3.066</v>
+      </c>
+      <c r="K746" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L746" t="n">
         <v>1</v>
       </c>
@@ -25327,8 +25485,14 @@
         <v>0</v>
       </c>
       <c r="I747" t="inlineStr"/>
-      <c r="J747" t="inlineStr"/>
-      <c r="K747" t="inlineStr"/>
+      <c r="J747" t="n">
+        <v>3.066</v>
+      </c>
+      <c r="K747" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L747" t="n">
         <v>1</v>
       </c>
@@ -25360,8 +25524,14 @@
         <v>0</v>
       </c>
       <c r="I748" t="inlineStr"/>
-      <c r="J748" t="inlineStr"/>
-      <c r="K748" t="inlineStr"/>
+      <c r="J748" t="n">
+        <v>3.066</v>
+      </c>
+      <c r="K748" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L748" t="n">
         <v>1</v>
       </c>
@@ -25393,8 +25563,14 @@
         <v>0</v>
       </c>
       <c r="I749" t="inlineStr"/>
-      <c r="J749" t="inlineStr"/>
-      <c r="K749" t="inlineStr"/>
+      <c r="J749" t="n">
+        <v>3.066</v>
+      </c>
+      <c r="K749" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L749" t="n">
         <v>1</v>
       </c>
@@ -25426,8 +25602,14 @@
         <v>0</v>
       </c>
       <c r="I750" t="inlineStr"/>
-      <c r="J750" t="inlineStr"/>
-      <c r="K750" t="inlineStr"/>
+      <c r="J750" t="n">
+        <v>3.066</v>
+      </c>
+      <c r="K750" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L750" t="n">
         <v>1</v>
       </c>
@@ -25459,8 +25641,14 @@
         <v>0</v>
       </c>
       <c r="I751" t="inlineStr"/>
-      <c r="J751" t="inlineStr"/>
-      <c r="K751" t="inlineStr"/>
+      <c r="J751" t="n">
+        <v>3.066</v>
+      </c>
+      <c r="K751" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L751" t="n">
         <v>1</v>
       </c>
@@ -25492,8 +25680,14 @@
         <v>0</v>
       </c>
       <c r="I752" t="inlineStr"/>
-      <c r="J752" t="inlineStr"/>
-      <c r="K752" t="inlineStr"/>
+      <c r="J752" t="n">
+        <v>3.066</v>
+      </c>
+      <c r="K752" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L752" t="n">
         <v>1</v>
       </c>
@@ -25525,8 +25719,14 @@
         <v>0</v>
       </c>
       <c r="I753" t="inlineStr"/>
-      <c r="J753" t="inlineStr"/>
-      <c r="K753" t="inlineStr"/>
+      <c r="J753" t="n">
+        <v>3.066</v>
+      </c>
+      <c r="K753" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L753" t="n">
         <v>1</v>
       </c>
@@ -25558,8 +25758,14 @@
         <v>0</v>
       </c>
       <c r="I754" t="inlineStr"/>
-      <c r="J754" t="inlineStr"/>
-      <c r="K754" t="inlineStr"/>
+      <c r="J754" t="n">
+        <v>3.066</v>
+      </c>
+      <c r="K754" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L754" t="n">
         <v>1</v>
       </c>
@@ -25591,8 +25797,14 @@
         <v>0</v>
       </c>
       <c r="I755" t="inlineStr"/>
-      <c r="J755" t="inlineStr"/>
-      <c r="K755" t="inlineStr"/>
+      <c r="J755" t="n">
+        <v>3.066</v>
+      </c>
+      <c r="K755" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L755" t="n">
         <v>1</v>
       </c>
@@ -25624,8 +25836,14 @@
         <v>0</v>
       </c>
       <c r="I756" t="inlineStr"/>
-      <c r="J756" t="inlineStr"/>
-      <c r="K756" t="inlineStr"/>
+      <c r="J756" t="n">
+        <v>3.066</v>
+      </c>
+      <c r="K756" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L756" t="n">
         <v>1</v>
       </c>
@@ -25657,8 +25875,14 @@
         <v>0</v>
       </c>
       <c r="I757" t="inlineStr"/>
-      <c r="J757" t="inlineStr"/>
-      <c r="K757" t="inlineStr"/>
+      <c r="J757" t="n">
+        <v>3.066</v>
+      </c>
+      <c r="K757" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L757" t="n">
         <v>1</v>
       </c>
@@ -25690,8 +25914,14 @@
         <v>0</v>
       </c>
       <c r="I758" t="inlineStr"/>
-      <c r="J758" t="inlineStr"/>
-      <c r="K758" t="inlineStr"/>
+      <c r="J758" t="n">
+        <v>3.066</v>
+      </c>
+      <c r="K758" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L758" t="n">
         <v>1</v>
       </c>
@@ -25723,8 +25953,14 @@
         <v>0</v>
       </c>
       <c r="I759" t="inlineStr"/>
-      <c r="J759" t="inlineStr"/>
-      <c r="K759" t="inlineStr"/>
+      <c r="J759" t="n">
+        <v>3.066</v>
+      </c>
+      <c r="K759" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L759" t="n">
         <v>1</v>
       </c>
@@ -25756,8 +25992,14 @@
         <v>0</v>
       </c>
       <c r="I760" t="inlineStr"/>
-      <c r="J760" t="inlineStr"/>
-      <c r="K760" t="inlineStr"/>
+      <c r="J760" t="n">
+        <v>3.066</v>
+      </c>
+      <c r="K760" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L760" t="n">
         <v>1</v>
       </c>
@@ -25789,8 +26031,14 @@
         <v>0</v>
       </c>
       <c r="I761" t="inlineStr"/>
-      <c r="J761" t="inlineStr"/>
-      <c r="K761" t="inlineStr"/>
+      <c r="J761" t="n">
+        <v>3.066</v>
+      </c>
+      <c r="K761" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L761" t="n">
         <v>1</v>
       </c>
@@ -25822,8 +26070,14 @@
         <v>0</v>
       </c>
       <c r="I762" t="inlineStr"/>
-      <c r="J762" t="inlineStr"/>
-      <c r="K762" t="inlineStr"/>
+      <c r="J762" t="n">
+        <v>3.066</v>
+      </c>
+      <c r="K762" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L762" t="n">
         <v>1</v>
       </c>
@@ -25855,8 +26109,14 @@
         <v>0</v>
       </c>
       <c r="I763" t="inlineStr"/>
-      <c r="J763" t="inlineStr"/>
-      <c r="K763" t="inlineStr"/>
+      <c r="J763" t="n">
+        <v>3.066</v>
+      </c>
+      <c r="K763" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L763" t="n">
         <v>1</v>
       </c>
@@ -25888,8 +26148,14 @@
         <v>0</v>
       </c>
       <c r="I764" t="inlineStr"/>
-      <c r="J764" t="inlineStr"/>
-      <c r="K764" t="inlineStr"/>
+      <c r="J764" t="n">
+        <v>3.066</v>
+      </c>
+      <c r="K764" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L764" t="n">
         <v>1</v>
       </c>
@@ -25921,8 +26187,14 @@
         <v>0</v>
       </c>
       <c r="I765" t="inlineStr"/>
-      <c r="J765" t="inlineStr"/>
-      <c r="K765" t="inlineStr"/>
+      <c r="J765" t="n">
+        <v>3.066</v>
+      </c>
+      <c r="K765" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L765" t="n">
         <v>1</v>
       </c>
@@ -25954,8 +26226,14 @@
         <v>0</v>
       </c>
       <c r="I766" t="inlineStr"/>
-      <c r="J766" t="inlineStr"/>
-      <c r="K766" t="inlineStr"/>
+      <c r="J766" t="n">
+        <v>3.066</v>
+      </c>
+      <c r="K766" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L766" t="n">
         <v>1</v>
       </c>
@@ -25987,8 +26265,14 @@
         <v>0</v>
       </c>
       <c r="I767" t="inlineStr"/>
-      <c r="J767" t="inlineStr"/>
-      <c r="K767" t="inlineStr"/>
+      <c r="J767" t="n">
+        <v>3.066</v>
+      </c>
+      <c r="K767" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L767" t="n">
         <v>1</v>
       </c>
@@ -26020,8 +26304,14 @@
         <v>0</v>
       </c>
       <c r="I768" t="inlineStr"/>
-      <c r="J768" t="inlineStr"/>
-      <c r="K768" t="inlineStr"/>
+      <c r="J768" t="n">
+        <v>3.066</v>
+      </c>
+      <c r="K768" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L768" t="n">
         <v>1</v>
       </c>
@@ -26053,8 +26343,14 @@
         <v>0</v>
       </c>
       <c r="I769" t="inlineStr"/>
-      <c r="J769" t="inlineStr"/>
-      <c r="K769" t="inlineStr"/>
+      <c r="J769" t="n">
+        <v>3.066</v>
+      </c>
+      <c r="K769" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L769" t="n">
         <v>1</v>
       </c>
@@ -26086,8 +26382,14 @@
         <v>0</v>
       </c>
       <c r="I770" t="inlineStr"/>
-      <c r="J770" t="inlineStr"/>
-      <c r="K770" t="inlineStr"/>
+      <c r="J770" t="n">
+        <v>3.066</v>
+      </c>
+      <c r="K770" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L770" t="n">
         <v>1</v>
       </c>
@@ -26119,8 +26421,14 @@
         <v>0</v>
       </c>
       <c r="I771" t="inlineStr"/>
-      <c r="J771" t="inlineStr"/>
-      <c r="K771" t="inlineStr"/>
+      <c r="J771" t="n">
+        <v>3.066</v>
+      </c>
+      <c r="K771" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L771" t="n">
         <v>1</v>
       </c>
@@ -26152,8 +26460,14 @@
         <v>0</v>
       </c>
       <c r="I772" t="inlineStr"/>
-      <c r="J772" t="inlineStr"/>
-      <c r="K772" t="inlineStr"/>
+      <c r="J772" t="n">
+        <v>3.066</v>
+      </c>
+      <c r="K772" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L772" t="n">
         <v>1</v>
       </c>
@@ -26185,8 +26499,14 @@
         <v>0</v>
       </c>
       <c r="I773" t="inlineStr"/>
-      <c r="J773" t="inlineStr"/>
-      <c r="K773" t="inlineStr"/>
+      <c r="J773" t="n">
+        <v>3.066</v>
+      </c>
+      <c r="K773" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L773" t="n">
         <v>1</v>
       </c>
@@ -26218,8 +26538,14 @@
         <v>0</v>
       </c>
       <c r="I774" t="inlineStr"/>
-      <c r="J774" t="inlineStr"/>
-      <c r="K774" t="inlineStr"/>
+      <c r="J774" t="n">
+        <v>3.066</v>
+      </c>
+      <c r="K774" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L774" t="n">
         <v>1</v>
       </c>
@@ -26251,8 +26577,14 @@
         <v>0</v>
       </c>
       <c r="I775" t="inlineStr"/>
-      <c r="J775" t="inlineStr"/>
-      <c r="K775" t="inlineStr"/>
+      <c r="J775" t="n">
+        <v>3.066</v>
+      </c>
+      <c r="K775" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L775" t="n">
         <v>1</v>
       </c>
@@ -26284,8 +26616,14 @@
         <v>0</v>
       </c>
       <c r="I776" t="inlineStr"/>
-      <c r="J776" t="inlineStr"/>
-      <c r="K776" t="inlineStr"/>
+      <c r="J776" t="n">
+        <v>3.066</v>
+      </c>
+      <c r="K776" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L776" t="n">
         <v>1</v>
       </c>
@@ -26317,8 +26655,14 @@
         <v>0</v>
       </c>
       <c r="I777" t="inlineStr"/>
-      <c r="J777" t="inlineStr"/>
-      <c r="K777" t="inlineStr"/>
+      <c r="J777" t="n">
+        <v>3.066</v>
+      </c>
+      <c r="K777" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L777" t="n">
         <v>1</v>
       </c>
@@ -26350,8 +26694,14 @@
         <v>0</v>
       </c>
       <c r="I778" t="inlineStr"/>
-      <c r="J778" t="inlineStr"/>
-      <c r="K778" t="inlineStr"/>
+      <c r="J778" t="n">
+        <v>3.066</v>
+      </c>
+      <c r="K778" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L778" t="n">
         <v>1</v>
       </c>
@@ -26383,8 +26733,14 @@
         <v>0</v>
       </c>
       <c r="I779" t="inlineStr"/>
-      <c r="J779" t="inlineStr"/>
-      <c r="K779" t="inlineStr"/>
+      <c r="J779" t="n">
+        <v>3.066</v>
+      </c>
+      <c r="K779" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L779" t="n">
         <v>1</v>
       </c>
@@ -26416,8 +26772,14 @@
         <v>0</v>
       </c>
       <c r="I780" t="inlineStr"/>
-      <c r="J780" t="inlineStr"/>
-      <c r="K780" t="inlineStr"/>
+      <c r="J780" t="n">
+        <v>3.066</v>
+      </c>
+      <c r="K780" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L780" t="n">
         <v>1</v>
       </c>
@@ -26449,8 +26811,14 @@
         <v>0</v>
       </c>
       <c r="I781" t="inlineStr"/>
-      <c r="J781" t="inlineStr"/>
-      <c r="K781" t="inlineStr"/>
+      <c r="J781" t="n">
+        <v>3.066</v>
+      </c>
+      <c r="K781" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L781" t="n">
         <v>1</v>
       </c>
@@ -26482,8 +26850,14 @@
         <v>0</v>
       </c>
       <c r="I782" t="inlineStr"/>
-      <c r="J782" t="inlineStr"/>
-      <c r="K782" t="inlineStr"/>
+      <c r="J782" t="n">
+        <v>3.066</v>
+      </c>
+      <c r="K782" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L782" t="n">
         <v>1</v>
       </c>
@@ -26515,8 +26889,14 @@
         <v>0</v>
       </c>
       <c r="I783" t="inlineStr"/>
-      <c r="J783" t="inlineStr"/>
-      <c r="K783" t="inlineStr"/>
+      <c r="J783" t="n">
+        <v>3.066</v>
+      </c>
+      <c r="K783" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L783" t="n">
         <v>1</v>
       </c>
@@ -26548,8 +26928,14 @@
         <v>0</v>
       </c>
       <c r="I784" t="inlineStr"/>
-      <c r="J784" t="inlineStr"/>
-      <c r="K784" t="inlineStr"/>
+      <c r="J784" t="n">
+        <v>3.066</v>
+      </c>
+      <c r="K784" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L784" t="n">
         <v>1</v>
       </c>
@@ -26581,8 +26967,14 @@
         <v>0</v>
       </c>
       <c r="I785" t="inlineStr"/>
-      <c r="J785" t="inlineStr"/>
-      <c r="K785" t="inlineStr"/>
+      <c r="J785" t="n">
+        <v>3.066</v>
+      </c>
+      <c r="K785" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L785" t="n">
         <v>1</v>
       </c>
@@ -26614,8 +27006,14 @@
         <v>0</v>
       </c>
       <c r="I786" t="inlineStr"/>
-      <c r="J786" t="inlineStr"/>
-      <c r="K786" t="inlineStr"/>
+      <c r="J786" t="n">
+        <v>3.066</v>
+      </c>
+      <c r="K786" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L786" t="n">
         <v>1</v>
       </c>
@@ -26647,8 +27045,14 @@
         <v>0</v>
       </c>
       <c r="I787" t="inlineStr"/>
-      <c r="J787" t="inlineStr"/>
-      <c r="K787" t="inlineStr"/>
+      <c r="J787" t="n">
+        <v>3.066</v>
+      </c>
+      <c r="K787" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L787" t="n">
         <v>1</v>
       </c>
@@ -26680,8 +27084,14 @@
         <v>0</v>
       </c>
       <c r="I788" t="inlineStr"/>
-      <c r="J788" t="inlineStr"/>
-      <c r="K788" t="inlineStr"/>
+      <c r="J788" t="n">
+        <v>3.066</v>
+      </c>
+      <c r="K788" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L788" t="n">
         <v>1</v>
       </c>
@@ -26713,8 +27123,14 @@
         <v>0</v>
       </c>
       <c r="I789" t="inlineStr"/>
-      <c r="J789" t="inlineStr"/>
-      <c r="K789" t="inlineStr"/>
+      <c r="J789" t="n">
+        <v>3.066</v>
+      </c>
+      <c r="K789" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L789" t="n">
         <v>1</v>
       </c>
@@ -26746,8 +27162,14 @@
         <v>0</v>
       </c>
       <c r="I790" t="inlineStr"/>
-      <c r="J790" t="inlineStr"/>
-      <c r="K790" t="inlineStr"/>
+      <c r="J790" t="n">
+        <v>3.066</v>
+      </c>
+      <c r="K790" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L790" t="n">
         <v>1</v>
       </c>
@@ -26779,8 +27201,14 @@
         <v>0</v>
       </c>
       <c r="I791" t="inlineStr"/>
-      <c r="J791" t="inlineStr"/>
-      <c r="K791" t="inlineStr"/>
+      <c r="J791" t="n">
+        <v>3.066</v>
+      </c>
+      <c r="K791" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L791" t="n">
         <v>1</v>
       </c>
@@ -26812,8 +27240,14 @@
         <v>0</v>
       </c>
       <c r="I792" t="inlineStr"/>
-      <c r="J792" t="inlineStr"/>
-      <c r="K792" t="inlineStr"/>
+      <c r="J792" t="n">
+        <v>3.066</v>
+      </c>
+      <c r="K792" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L792" t="n">
         <v>1</v>
       </c>
@@ -26845,8 +27279,14 @@
         <v>0</v>
       </c>
       <c r="I793" t="inlineStr"/>
-      <c r="J793" t="inlineStr"/>
-      <c r="K793" t="inlineStr"/>
+      <c r="J793" t="n">
+        <v>3.066</v>
+      </c>
+      <c r="K793" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L793" t="n">
         <v>1</v>
       </c>
@@ -26878,8 +27318,14 @@
         <v>0</v>
       </c>
       <c r="I794" t="inlineStr"/>
-      <c r="J794" t="inlineStr"/>
-      <c r="K794" t="inlineStr"/>
+      <c r="J794" t="n">
+        <v>3.066</v>
+      </c>
+      <c r="K794" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L794" t="n">
         <v>1</v>
       </c>
@@ -26911,8 +27357,14 @@
         <v>0</v>
       </c>
       <c r="I795" t="inlineStr"/>
-      <c r="J795" t="inlineStr"/>
-      <c r="K795" t="inlineStr"/>
+      <c r="J795" t="n">
+        <v>3.066</v>
+      </c>
+      <c r="K795" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L795" t="n">
         <v>1</v>
       </c>
@@ -26944,8 +27396,14 @@
         <v>0</v>
       </c>
       <c r="I796" t="inlineStr"/>
-      <c r="J796" t="inlineStr"/>
-      <c r="K796" t="inlineStr"/>
+      <c r="J796" t="n">
+        <v>3.066</v>
+      </c>
+      <c r="K796" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L796" t="n">
         <v>1</v>
       </c>
@@ -26977,8 +27435,14 @@
         <v>0</v>
       </c>
       <c r="I797" t="inlineStr"/>
-      <c r="J797" t="inlineStr"/>
-      <c r="K797" t="inlineStr"/>
+      <c r="J797" t="n">
+        <v>3.066</v>
+      </c>
+      <c r="K797" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L797" t="n">
         <v>1</v>
       </c>
@@ -27010,8 +27474,14 @@
         <v>0</v>
       </c>
       <c r="I798" t="inlineStr"/>
-      <c r="J798" t="inlineStr"/>
-      <c r="K798" t="inlineStr"/>
+      <c r="J798" t="n">
+        <v>3.066</v>
+      </c>
+      <c r="K798" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L798" t="n">
         <v>1</v>
       </c>
@@ -27043,8 +27513,14 @@
         <v>0</v>
       </c>
       <c r="I799" t="inlineStr"/>
-      <c r="J799" t="inlineStr"/>
-      <c r="K799" t="inlineStr"/>
+      <c r="J799" t="n">
+        <v>3.066</v>
+      </c>
+      <c r="K799" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L799" t="n">
         <v>1</v>
       </c>
@@ -27076,8 +27552,14 @@
         <v>0</v>
       </c>
       <c r="I800" t="inlineStr"/>
-      <c r="J800" t="inlineStr"/>
-      <c r="K800" t="inlineStr"/>
+      <c r="J800" t="n">
+        <v>3.066</v>
+      </c>
+      <c r="K800" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L800" t="n">
         <v>1</v>
       </c>
